--- a/BackTest/2019-10-26 BackTest ICX.xlsx
+++ b/BackTest/2019-10-26 BackTest ICX.xlsx
@@ -451,17 +451,13 @@
         <v>181.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>182</v>
-      </c>
-      <c r="K2" t="n">
-        <v>182</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -496,14 +492,8 @@
         <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>182</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -537,14 +527,8 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>182</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -642,17 +626,13 @@
         <v>179.8</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>179</v>
-      </c>
-      <c r="K7" t="n">
-        <v>179</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
@@ -681,22 +661,14 @@
         <v>178.8</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>178</v>
-      </c>
-      <c r="K8" t="n">
-        <v>179</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -724,22 +696,14 @@
         <v>179.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>181</v>
-      </c>
-      <c r="K9" t="n">
-        <v>179</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -767,17 +731,13 @@
         <v>179.8</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>182</v>
-      </c>
-      <c r="K10" t="n">
-        <v>182</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
@@ -806,22 +766,14 @@
         <v>180.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>181</v>
-      </c>
-      <c r="K11" t="n">
-        <v>182</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -849,22 +801,14 @@
         <v>180.6</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>181</v>
-      </c>
-      <c r="K12" t="n">
-        <v>182</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -892,22 +836,14 @@
         <v>180.8</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>179</v>
-      </c>
-      <c r="K13" t="n">
-        <v>182</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -941,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>182</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -976,22 +906,14 @@
         <v>180.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>179</v>
-      </c>
-      <c r="K15" t="n">
-        <v>182</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1019,22 +941,14 @@
         <v>180.2</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>181</v>
-      </c>
-      <c r="K16" t="n">
-        <v>182</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1062,22 +976,14 @@
         <v>179.8</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>179</v>
-      </c>
-      <c r="K17" t="n">
-        <v>182</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1105,22 +1011,14 @@
         <v>180</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>177</v>
-      </c>
-      <c r="K18" t="n">
-        <v>182</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1148,22 +1046,14 @@
         <v>179.8</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>178</v>
-      </c>
-      <c r="K19" t="n">
-        <v>182</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1191,22 +1081,14 @@
         <v>179.2</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>178</v>
-      </c>
-      <c r="K20" t="n">
-        <v>182</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1234,22 +1116,14 @@
         <v>179</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>180</v>
-      </c>
-      <c r="K21" t="n">
-        <v>182</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1277,22 +1151,14 @@
         <v>179.2</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>180</v>
-      </c>
-      <c r="K22" t="n">
-        <v>182</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1320,22 +1186,14 @@
         <v>181</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>181</v>
-      </c>
-      <c r="K23" t="n">
-        <v>182</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1363,22 +1221,14 @@
         <v>183.2</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>188</v>
-      </c>
-      <c r="K24" t="n">
-        <v>182</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1412,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>182</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1450,17 +1294,11 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>182</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1494,16 +1332,10 @@
         <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>182</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>1.033461538461539</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -4767,14 +4599,12 @@
         <v>177.6</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>178</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>

--- a/BackTest/2019-10-26 BackTest ICX.xlsx
+++ b/BackTest/2019-10-26 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>182</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>1148.2093</v>
       </c>
       <c r="G2" t="n">
-        <v>181.6</v>
+        <v>179.65</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C3" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D3" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E3" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F3" t="n">
-        <v>493.9316</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>182</v>
+        <v>179.7333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C4" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D4" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E4" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>493.9316</v>
       </c>
       <c r="G4" t="n">
-        <v>181.4</v>
+        <v>179.8333333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>179</v>
       </c>
       <c r="F5" t="n">
-        <v>1364.0104</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
-        <v>181</v>
+        <v>179.8166666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>179</v>
       </c>
       <c r="F6" t="n">
-        <v>413.3575</v>
+        <v>1364.0104</v>
       </c>
       <c r="G6" t="n">
-        <v>180.4</v>
+        <v>179.8333333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>179</v>
       </c>
       <c r="F7" t="n">
-        <v>1541.3916</v>
+        <v>413.3575</v>
       </c>
       <c r="G7" t="n">
-        <v>179.8</v>
+        <v>179.8666666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C8" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D8" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E8" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F8" t="n">
-        <v>1024.1489</v>
+        <v>1541.3916</v>
       </c>
       <c r="G8" t="n">
-        <v>178.8</v>
+        <v>179.85</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C9" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D9" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E9" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F9" t="n">
-        <v>1289</v>
+        <v>1024.1489</v>
       </c>
       <c r="G9" t="n">
-        <v>179.2</v>
+        <v>179.8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,31 +713,35 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C10" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D10" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E10" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F10" t="n">
-        <v>1.0472</v>
+        <v>1289</v>
       </c>
       <c r="G10" t="n">
-        <v>179.8</v>
+        <v>179.85</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>178</v>
+      </c>
+      <c r="K10" t="n">
+        <v>178</v>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
@@ -748,22 +752,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C11" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D11" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E11" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F11" t="n">
-        <v>74.9143</v>
+        <v>1.0472</v>
       </c>
       <c r="G11" t="n">
-        <v>180.2</v>
+        <v>179.8833333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -772,8 +776,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>178</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -795,10 +805,10 @@
         <v>181</v>
       </c>
       <c r="F12" t="n">
-        <v>796.874</v>
+        <v>74.9143</v>
       </c>
       <c r="G12" t="n">
-        <v>180.6</v>
+        <v>179.95</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -807,8 +817,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>178</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -818,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C13" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D13" t="n">
         <v>181</v>
       </c>
       <c r="E13" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F13" t="n">
-        <v>5.4563</v>
+        <v>796.874</v>
       </c>
       <c r="G13" t="n">
-        <v>180.8</v>
+        <v>180</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C14" t="n">
         <v>179</v>
@@ -865,10 +881,10 @@
         <v>179</v>
       </c>
       <c r="F14" t="n">
-        <v>1633.2575</v>
+        <v>5.4563</v>
       </c>
       <c r="G14" t="n">
-        <v>180.4</v>
+        <v>179.9833333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +904,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C15" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D15" t="n">
         <v>181</v>
       </c>
       <c r="E15" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F15" t="n">
-        <v>7156.7124</v>
+        <v>1633.2575</v>
       </c>
       <c r="G15" t="n">
-        <v>180.2</v>
+        <v>179.9833333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,7 +939,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C16" t="n">
         <v>181</v>
@@ -932,13 +948,13 @@
         <v>181</v>
       </c>
       <c r="E16" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F16" t="n">
-        <v>1055</v>
+        <v>7156.7124</v>
       </c>
       <c r="G16" t="n">
-        <v>180.2</v>
+        <v>180</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +974,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C17" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D17" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E17" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F17" t="n">
-        <v>168</v>
+        <v>1055</v>
       </c>
       <c r="G17" t="n">
-        <v>179.8</v>
+        <v>179.9833333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +1009,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C18" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D18" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E18" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F18" t="n">
-        <v>6157.8608</v>
+        <v>168</v>
       </c>
       <c r="G18" t="n">
-        <v>180</v>
+        <v>179.9333333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1044,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D19" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E19" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F19" t="n">
-        <v>265.8693</v>
+        <v>6157.8608</v>
       </c>
       <c r="G19" t="n">
-        <v>179.8</v>
+        <v>179.9333333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1091,10 @@
         <v>178</v>
       </c>
       <c r="F20" t="n">
-        <v>2811.4726</v>
+        <v>265.8693</v>
       </c>
       <c r="G20" t="n">
-        <v>179.2</v>
+        <v>179.85</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1114,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C21" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D21" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E21" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F21" t="n">
-        <v>391.6944</v>
+        <v>2811.4726</v>
       </c>
       <c r="G21" t="n">
-        <v>179</v>
+        <v>179.7666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1161,10 @@
         <v>180</v>
       </c>
       <c r="F22" t="n">
-        <v>379.4657</v>
+        <v>391.6944</v>
       </c>
       <c r="G22" t="n">
-        <v>179.2</v>
+        <v>179.7333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1184,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C23" t="n">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D23" t="n">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E23" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F23" t="n">
-        <v>18720.05659365079</v>
+        <v>379.4657</v>
       </c>
       <c r="G23" t="n">
-        <v>181</v>
+        <v>179.7333333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,7 +1219,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C24" t="n">
         <v>189</v>
@@ -1212,13 +1228,13 @@
         <v>189</v>
       </c>
       <c r="E24" t="n">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F24" t="n">
-        <v>6540.046506349207</v>
+        <v>18720.05659365079</v>
       </c>
       <c r="G24" t="n">
-        <v>183.2</v>
+        <v>179.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,7 +1254,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C25" t="n">
         <v>189</v>
@@ -1247,13 +1263,13 @@
         <v>189</v>
       </c>
       <c r="E25" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F25" t="n">
-        <v>853.8317</v>
+        <v>6540.046506349207</v>
       </c>
       <c r="G25" t="n">
-        <v>185.4</v>
+        <v>180.0666666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1292,19 @@
         <v>189</v>
       </c>
       <c r="C26" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D26" t="n">
         <v>189</v>
       </c>
       <c r="E26" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F26" t="n">
-        <v>123</v>
+        <v>853.8317</v>
       </c>
       <c r="G26" t="n">
-        <v>187</v>
+        <v>180.2333333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,10 +1324,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>189</v>
+      </c>
+      <c r="C27" t="n">
         <v>188</v>
-      </c>
-      <c r="C27" t="n">
-        <v>189</v>
       </c>
       <c r="D27" t="n">
         <v>189</v>
@@ -1320,10 +1336,10 @@
         <v>188</v>
       </c>
       <c r="F27" t="n">
-        <v>313.0847</v>
+        <v>123</v>
       </c>
       <c r="G27" t="n">
-        <v>188.8</v>
+        <v>180.3833333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1359,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C28" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D28" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E28" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F28" t="n">
-        <v>165.5475</v>
+        <v>313.0847</v>
       </c>
       <c r="G28" t="n">
-        <v>188.2</v>
+        <v>180.55</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1406,10 @@
         <v>186</v>
       </c>
       <c r="F29" t="n">
-        <v>114.2301</v>
+        <v>165.5475</v>
       </c>
       <c r="G29" t="n">
-        <v>187.6</v>
+        <v>180.6666666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1429,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C30" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D30" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E30" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F30" t="n">
-        <v>123.5632</v>
+        <v>114.2301</v>
       </c>
       <c r="G30" t="n">
-        <v>186.8</v>
+        <v>180.7833333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1464,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C31" t="n">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D31" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E31" t="n">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F31" t="n">
-        <v>5460.8779</v>
+        <v>123.5632</v>
       </c>
       <c r="G31" t="n">
-        <v>185</v>
+        <v>180.8833333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1499,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C32" t="n">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D32" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E32" t="n">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F32" t="n">
-        <v>206.8208</v>
+        <v>5460.8779</v>
       </c>
       <c r="G32" t="n">
-        <v>183.8</v>
+        <v>180.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1546,10 @@
         <v>183</v>
       </c>
       <c r="F33" t="n">
-        <v>7</v>
+        <v>206.8208</v>
       </c>
       <c r="G33" t="n">
-        <v>183.2</v>
+        <v>180.9666666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1581,10 @@
         <v>183</v>
       </c>
       <c r="F34" t="n">
-        <v>932.7862</v>
+        <v>7</v>
       </c>
       <c r="G34" t="n">
-        <v>182.6</v>
+        <v>181.0166666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1604,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C35" t="n">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D35" t="n">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E35" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F35" t="n">
-        <v>7240.4136</v>
+        <v>932.7862</v>
       </c>
       <c r="G35" t="n">
-        <v>183.6</v>
+        <v>181.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1639,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C36" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D36" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E36" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F36" t="n">
-        <v>5103.811693193717</v>
+        <v>7240.4136</v>
       </c>
       <c r="G36" t="n">
-        <v>184.8</v>
+        <v>181.2833333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1674,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C37" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D37" t="n">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E37" t="n">
         <v>183</v>
       </c>
       <c r="F37" t="n">
-        <v>54.6448</v>
+        <v>5103.811693193717</v>
       </c>
       <c r="G37" t="n">
-        <v>184.8</v>
+        <v>181.3666666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1721,10 @@
         <v>183</v>
       </c>
       <c r="F38" t="n">
-        <v>447.9343</v>
+        <v>54.6448</v>
       </c>
       <c r="G38" t="n">
-        <v>184.8</v>
+        <v>181.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1744,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C39" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D39" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E39" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F39" t="n">
-        <v>162.1627</v>
+        <v>447.9343</v>
       </c>
       <c r="G39" t="n">
-        <v>185</v>
+        <v>181.4333333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1779,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C40" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D40" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E40" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F40" t="n">
-        <v>16.3551</v>
+        <v>162.1627</v>
       </c>
       <c r="G40" t="n">
-        <v>183.6</v>
+        <v>181.4666666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1814,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C41" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D41" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E41" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F41" t="n">
-        <v>16.3142</v>
+        <v>16.3551</v>
       </c>
       <c r="G41" t="n">
-        <v>182.6</v>
+        <v>181.4833333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1849,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C42" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D42" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E42" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>16.3142</v>
       </c>
       <c r="G42" t="n">
-        <v>182.6</v>
+        <v>181.45</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C43" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D43" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E43" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F43" t="n">
-        <v>1618.6085</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>182</v>
+        <v>181.4666666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,7 +1919,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C44" t="n">
         <v>180</v>
@@ -1915,10 +1931,10 @@
         <v>179</v>
       </c>
       <c r="F44" t="n">
-        <v>1250</v>
+        <v>1618.6085</v>
       </c>
       <c r="G44" t="n">
-        <v>181.2</v>
+        <v>181.45</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,19 +1957,19 @@
         <v>179</v>
       </c>
       <c r="C45" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D45" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E45" t="n">
         <v>179</v>
       </c>
       <c r="F45" t="n">
-        <v>639.4394</v>
+        <v>1250</v>
       </c>
       <c r="G45" t="n">
-        <v>180.4</v>
+        <v>181.45</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1989,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C46" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D46" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E46" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F46" t="n">
-        <v>1829.2002</v>
+        <v>639.4394</v>
       </c>
       <c r="G46" t="n">
-        <v>180.4</v>
+        <v>181.4333333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2036,10 @@
         <v>180</v>
       </c>
       <c r="F47" t="n">
-        <v>1063.2446</v>
+        <v>1829.2002</v>
       </c>
       <c r="G47" t="n">
-        <v>179.8</v>
+        <v>181.4333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2059,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C48" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D48" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E48" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F48" t="n">
-        <v>2500</v>
+        <v>1063.2446</v>
       </c>
       <c r="G48" t="n">
-        <v>180.4</v>
+        <v>181.45</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2094,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C49" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D49" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E49" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F49" t="n">
-        <v>124.0531</v>
+        <v>2500</v>
       </c>
       <c r="G49" t="n">
-        <v>180.8</v>
+        <v>181.5166666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,7 +2129,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C50" t="n">
         <v>182</v>
@@ -2122,13 +2138,13 @@
         <v>182</v>
       </c>
       <c r="E50" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F50" t="n">
-        <v>30</v>
+        <v>124.0531</v>
       </c>
       <c r="G50" t="n">
-        <v>181.4</v>
+        <v>181.5833333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2164,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C51" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D51" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E51" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F51" t="n">
-        <v>218.2771</v>
+        <v>30</v>
       </c>
       <c r="G51" t="n">
-        <v>181.6</v>
+        <v>181.65</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2211,10 @@
         <v>181</v>
       </c>
       <c r="F52" t="n">
-        <v>1811.4239</v>
+        <v>218.2771</v>
       </c>
       <c r="G52" t="n">
-        <v>181.8</v>
+        <v>181.7166666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2234,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C53" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D53" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E53" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F53" t="n">
-        <v>433.226</v>
+        <v>1811.4239</v>
       </c>
       <c r="G53" t="n">
-        <v>181.6</v>
+        <v>181.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2269,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C54" t="n">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D54" t="n">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E54" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F54" t="n">
-        <v>4890.114</v>
+        <v>433.226</v>
       </c>
       <c r="G54" t="n">
-        <v>182.4</v>
+        <v>181.9166666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2304,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C55" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D55" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E55" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F55" t="n">
-        <v>1670.329</v>
+        <v>4890.114</v>
       </c>
       <c r="G55" t="n">
-        <v>182.4</v>
+        <v>182.05</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2339,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C56" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D56" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E56" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F56" t="n">
-        <v>2368.538</v>
+        <v>1670.329</v>
       </c>
       <c r="G56" t="n">
-        <v>183</v>
+        <v>182.1166666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2386,10 @@
         <v>184</v>
       </c>
       <c r="F57" t="n">
-        <v>250</v>
+        <v>2368.538</v>
       </c>
       <c r="G57" t="n">
-        <v>183.6</v>
+        <v>182.15</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2421,10 @@
         <v>184</v>
       </c>
       <c r="F58" t="n">
-        <v>125.3455</v>
+        <v>250</v>
       </c>
       <c r="G58" t="n">
-        <v>184</v>
+        <v>182.1833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2444,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C59" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D59" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E59" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F59" t="n">
-        <v>1659.3369</v>
+        <v>125.3455</v>
       </c>
       <c r="G59" t="n">
-        <v>183.2</v>
+        <v>182.2333333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2479,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C60" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D60" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E60" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F60" t="n">
-        <v>500</v>
+        <v>1659.3369</v>
       </c>
       <c r="G60" t="n">
-        <v>183.6</v>
+        <v>182.2333333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2514,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C61" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D61" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E61" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F61" t="n">
-        <v>401.977</v>
+        <v>500</v>
       </c>
       <c r="G61" t="n">
-        <v>183</v>
+        <v>182.2833333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2549,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C62" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E62" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F62" t="n">
-        <v>1862.136</v>
+        <v>401.977</v>
       </c>
       <c r="G62" t="n">
-        <v>182.2</v>
+        <v>182.2666666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2571,19 +2587,19 @@
         <v>180</v>
       </c>
       <c r="C63" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D63" t="n">
         <v>180</v>
       </c>
       <c r="E63" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F63" t="n">
-        <v>2811.4726</v>
+        <v>1862.136</v>
       </c>
       <c r="G63" t="n">
-        <v>181.2</v>
+        <v>182.2333333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2619,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C64" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D64" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E64" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F64" t="n">
-        <v>1.2342</v>
+        <v>2811.4726</v>
       </c>
       <c r="G64" t="n">
-        <v>181</v>
+        <v>182.1666666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2654,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C65" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D65" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E65" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F65" t="n">
-        <v>284</v>
+        <v>1.2342</v>
       </c>
       <c r="G65" t="n">
-        <v>180.2</v>
+        <v>182.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2676,19 +2692,19 @@
         <v>180</v>
       </c>
       <c r="C66" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D66" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E66" t="n">
         <v>180</v>
       </c>
       <c r="F66" t="n">
-        <v>286.7878</v>
+        <v>284</v>
       </c>
       <c r="G66" t="n">
-        <v>180.2</v>
+        <v>182.2166666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2724,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C67" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D67" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E67" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F67" t="n">
-        <v>1327.9207</v>
+        <v>286.7878</v>
       </c>
       <c r="G67" t="n">
-        <v>180</v>
+        <v>182.25</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2759,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C68" t="n">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D68" t="n">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E68" t="n">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F68" t="n">
-        <v>1.4972</v>
+        <v>1327.9207</v>
       </c>
       <c r="G68" t="n">
-        <v>181.2</v>
+        <v>182.25</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2781,19 +2797,19 @@
         <v>185</v>
       </c>
       <c r="C69" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D69" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E69" t="n">
         <v>185</v>
       </c>
       <c r="F69" t="n">
-        <v>2986.061719354839</v>
+        <v>1.4972</v>
       </c>
       <c r="G69" t="n">
-        <v>182.2</v>
+        <v>182.3666666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2829,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C70" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D70" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E70" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F70" t="n">
-        <v>1.3537</v>
+        <v>2986.061719354839</v>
       </c>
       <c r="G70" t="n">
-        <v>183.8</v>
+        <v>182.45</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2876,10 @@
         <v>188</v>
       </c>
       <c r="F71" t="n">
-        <v>2600</v>
+        <v>1.3537</v>
       </c>
       <c r="G71" t="n">
-        <v>185.2</v>
+        <v>182.55</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2911,10 @@
         <v>188</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>2600</v>
       </c>
       <c r="G72" t="n">
-        <v>187</v>
+        <v>182.6666666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2937,19 @@
         <v>188</v>
       </c>
       <c r="C73" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D73" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E73" t="n">
         <v>188</v>
       </c>
       <c r="F73" t="n">
-        <v>1336.362634391534</v>
+        <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>187.8</v>
+        <v>182.7833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2956,19 +2972,19 @@
         <v>188</v>
       </c>
       <c r="C74" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D74" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E74" t="n">
         <v>188</v>
       </c>
       <c r="F74" t="n">
-        <v>1422.4358</v>
+        <v>1336.362634391534</v>
       </c>
       <c r="G74" t="n">
-        <v>188.2</v>
+        <v>182.95</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3004,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C75" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D75" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E75" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F75" t="n">
-        <v>4917.6989</v>
+        <v>1422.4358</v>
       </c>
       <c r="G75" t="n">
-        <v>187.6</v>
+        <v>183.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3039,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C76" t="n">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D76" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E76" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F76" t="n">
-        <v>6.5475</v>
+        <v>4917.6989</v>
       </c>
       <c r="G76" t="n">
-        <v>187.8</v>
+        <v>183.1666666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,7 +3074,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C77" t="n">
         <v>189</v>
@@ -3067,13 +3083,13 @@
         <v>189</v>
       </c>
       <c r="E77" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F77" t="n">
-        <v>11.2777</v>
+        <v>6.5475</v>
       </c>
       <c r="G77" t="n">
-        <v>188</v>
+        <v>183.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3109,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C78" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D78" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E78" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>11.2777</v>
       </c>
       <c r="G78" t="n">
-        <v>187</v>
+        <v>183.4666666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3144,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C79" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D79" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E79" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F79" t="n">
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>187.2</v>
+        <v>183.5333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3179,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C80" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D80" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E80" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F80" t="n">
-        <v>243.8362</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>186.8</v>
+        <v>183.7166666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3214,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C81" t="n">
         <v>183</v>
       </c>
       <c r="D81" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E81" t="n">
         <v>183</v>
       </c>
       <c r="F81" t="n">
-        <v>90</v>
+        <v>243.8362</v>
       </c>
       <c r="G81" t="n">
-        <v>185.6</v>
+        <v>183.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3249,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C82" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D82" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E82" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F82" t="n">
-        <v>8.2872</v>
+        <v>90</v>
       </c>
       <c r="G82" t="n">
-        <v>184.2</v>
+        <v>183.85</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3271,19 +3287,19 @@
         <v>182</v>
       </c>
       <c r="C83" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D83" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E83" t="n">
         <v>182</v>
       </c>
       <c r="F83" t="n">
-        <v>16394.10136065574</v>
+        <v>8.2872</v>
       </c>
       <c r="G83" t="n">
-        <v>184</v>
+        <v>183.8833333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,7 +3319,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C84" t="n">
         <v>183</v>
@@ -3312,13 +3328,13 @@
         <v>183</v>
       </c>
       <c r="E84" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F84" t="n">
-        <v>1639.344262295082</v>
+        <v>16394.10136065574</v>
       </c>
       <c r="G84" t="n">
-        <v>182.8</v>
+        <v>183.7833333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3341,19 +3357,19 @@
         <v>183</v>
       </c>
       <c r="C85" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D85" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E85" t="n">
         <v>183</v>
       </c>
       <c r="F85" t="n">
-        <v>16231.38819247471</v>
+        <v>1639.344262295082</v>
       </c>
       <c r="G85" t="n">
-        <v>183.8</v>
+        <v>183.6833333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3376,19 +3392,19 @@
         <v>183</v>
       </c>
       <c r="C86" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D86" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E86" t="n">
         <v>183</v>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>16231.38819247471</v>
       </c>
       <c r="G86" t="n">
-        <v>183.8</v>
+        <v>183.6666666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3424,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C87" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D87" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E87" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F87" t="n">
-        <v>1.0129</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>184.6</v>
+        <v>183.5833333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,10 +3471,10 @@
         <v>186</v>
       </c>
       <c r="F88" t="n">
-        <v>1158.7602</v>
+        <v>1.0129</v>
       </c>
       <c r="G88" t="n">
-        <v>185.2</v>
+        <v>183.5333333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3494,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C89" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D89" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E89" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F89" t="n">
-        <v>6</v>
+        <v>1158.7602</v>
       </c>
       <c r="G89" t="n">
-        <v>186</v>
+        <v>183.5333333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3516,19 +3532,19 @@
         <v>187</v>
       </c>
       <c r="C90" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D90" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E90" t="n">
         <v>187</v>
       </c>
       <c r="F90" t="n">
-        <v>2551.11445212766</v>
+        <v>6</v>
       </c>
       <c r="G90" t="n">
-        <v>186</v>
+        <v>183.55</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3551,19 +3567,19 @@
         <v>187</v>
       </c>
       <c r="C91" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D91" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E91" t="n">
         <v>187</v>
       </c>
       <c r="F91" t="n">
-        <v>16</v>
+        <v>2551.11445212766</v>
       </c>
       <c r="G91" t="n">
-        <v>186.8</v>
+        <v>183.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3611,10 @@
         <v>187</v>
       </c>
       <c r="F92" t="n">
-        <v>2428.7737</v>
+        <v>16</v>
       </c>
       <c r="G92" t="n">
-        <v>187</v>
+        <v>183.7333333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3634,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C93" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D93" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E93" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F93" t="n">
-        <v>6</v>
+        <v>2428.7737</v>
       </c>
       <c r="G93" t="n">
-        <v>186.8</v>
+        <v>183.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3669,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C94" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D94" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E94" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F94" t="n">
-        <v>1.0846</v>
+        <v>6</v>
       </c>
       <c r="G94" t="n">
-        <v>186.6</v>
+        <v>183.8333333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3704,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C95" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D95" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E95" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F95" t="n">
-        <v>177.071</v>
+        <v>1.0846</v>
       </c>
       <c r="G95" t="n">
-        <v>185.6</v>
+        <v>183.8833333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3739,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C96" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D96" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E96" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F96" t="n">
-        <v>1.0489</v>
+        <v>177.071</v>
       </c>
       <c r="G96" t="n">
-        <v>185.4</v>
+        <v>183.7666666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3774,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C97" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D97" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E97" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F97" t="n">
-        <v>1397</v>
+        <v>1.0489</v>
       </c>
       <c r="G97" t="n">
-        <v>184.8</v>
+        <v>183.7833333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3809,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C98" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D98" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E98" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F98" t="n">
-        <v>2334.2148</v>
+        <v>1397</v>
       </c>
       <c r="G98" t="n">
-        <v>184.4</v>
+        <v>183.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3844,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C99" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D99" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E99" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F99" t="n">
-        <v>1.4432</v>
+        <v>2334.2148</v>
       </c>
       <c r="G99" t="n">
-        <v>184</v>
+        <v>183.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3879,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C100" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D100" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E100" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F100" t="n">
-        <v>3</v>
+        <v>1.4432</v>
       </c>
       <c r="G100" t="n">
-        <v>184</v>
+        <v>183.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,10 +3926,10 @@
         <v>183</v>
       </c>
       <c r="F101" t="n">
-        <v>3460.2232</v>
+        <v>3</v>
       </c>
       <c r="G101" t="n">
-        <v>183.4</v>
+        <v>183.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3949,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C102" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D102" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E102" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F102" t="n">
-        <v>85.86920000000001</v>
+        <v>3460.2232</v>
       </c>
       <c r="G102" t="n">
-        <v>182.8</v>
+        <v>183.85</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +3996,10 @@
         <v>181</v>
       </c>
       <c r="F103" t="n">
-        <v>201.5489</v>
+        <v>85.86920000000001</v>
       </c>
       <c r="G103" t="n">
-        <v>182.4</v>
+        <v>183.8166666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4019,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C104" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D104" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E104" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F104" t="n">
-        <v>3429.8415</v>
+        <v>201.5489</v>
       </c>
       <c r="G104" t="n">
-        <v>181.6</v>
+        <v>183.8333333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4054,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C105" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D105" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E105" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F105" t="n">
-        <v>4</v>
+        <v>3429.8415</v>
       </c>
       <c r="G105" t="n">
-        <v>181.2</v>
+        <v>183.8333333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4089,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C106" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D106" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E106" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F106" t="n">
-        <v>194.0529</v>
+        <v>4</v>
       </c>
       <c r="G106" t="n">
-        <v>180.6</v>
+        <v>183.8666666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4124,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C107" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D107" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E107" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F107" t="n">
-        <v>1211.3508</v>
+        <v>194.0529</v>
       </c>
       <c r="G107" t="n">
-        <v>180.2</v>
+        <v>183.8666666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4146,19 +4162,19 @@
         <v>179</v>
       </c>
       <c r="C108" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D108" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E108" t="n">
         <v>179</v>
       </c>
       <c r="F108" t="n">
-        <v>86.88039999999999</v>
+        <v>1211.3508</v>
       </c>
       <c r="G108" t="n">
-        <v>180</v>
+        <v>183.85</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4181,19 +4197,19 @@
         <v>179</v>
       </c>
       <c r="C109" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D109" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E109" t="n">
         <v>179</v>
       </c>
       <c r="F109" t="n">
-        <v>605.6754</v>
+        <v>86.88039999999999</v>
       </c>
       <c r="G109" t="n">
-        <v>179.8</v>
+        <v>183.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4241,10 @@
         <v>179</v>
       </c>
       <c r="F110" t="n">
-        <v>165.9686</v>
+        <v>605.6754</v>
       </c>
       <c r="G110" t="n">
-        <v>179.4</v>
+        <v>183.75</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4264,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C111" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D111" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E111" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F111" t="n">
-        <v>878.8995</v>
+        <v>165.9686</v>
       </c>
       <c r="G111" t="n">
-        <v>179</v>
+        <v>183.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4299,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C112" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D112" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E112" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F112" t="n">
-        <v>5.985</v>
+        <v>878.8995</v>
       </c>
       <c r="G112" t="n">
-        <v>178.6</v>
+        <v>183.65</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4346,10 @@
         <v>177</v>
       </c>
       <c r="F113" t="n">
-        <v>15201.9358</v>
+        <v>5.985</v>
       </c>
       <c r="G113" t="n">
-        <v>178</v>
+        <v>183.5833333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4369,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C114" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D114" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E114" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F114" t="n">
-        <v>2000</v>
+        <v>15201.9358</v>
       </c>
       <c r="G114" t="n">
-        <v>177.8</v>
+        <v>183.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4404,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C115" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D115" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E115" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F115" t="n">
-        <v>2.206</v>
+        <v>2000</v>
       </c>
       <c r="G115" t="n">
-        <v>177.2</v>
+        <v>183.3666666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4451,10 @@
         <v>176</v>
       </c>
       <c r="F116" t="n">
-        <v>38.5</v>
+        <v>2.206</v>
       </c>
       <c r="G116" t="n">
-        <v>176.8</v>
+        <v>183.2666666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4461,35 +4477,29 @@
         <v>176</v>
       </c>
       <c r="C117" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D117" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E117" t="n">
         <v>176</v>
       </c>
       <c r="F117" t="n">
-        <v>6417.0979</v>
+        <v>38.5</v>
       </c>
       <c r="G117" t="n">
-        <v>177</v>
+        <v>183.1333333333333</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>176</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4499,7 +4509,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C118" t="n">
         <v>178</v>
@@ -4508,29 +4518,23 @@
         <v>178</v>
       </c>
       <c r="E118" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F118" t="n">
-        <v>271473.551</v>
+        <v>6417.0979</v>
       </c>
       <c r="G118" t="n">
-        <v>177.2</v>
+        <v>183.0333333333333</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>178</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4552,26 +4556,20 @@
         <v>178</v>
       </c>
       <c r="F119" t="n">
-        <v>1298812</v>
+        <v>271473.551</v>
       </c>
       <c r="G119" t="n">
-        <v>177.2</v>
+        <v>182.9333333333333</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>178</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4587,16 +4585,16 @@
         <v>178</v>
       </c>
       <c r="D120" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E120" t="n">
         <v>178</v>
       </c>
       <c r="F120" t="n">
-        <v>1282844.6815</v>
+        <v>1298812</v>
       </c>
       <c r="G120" t="n">
-        <v>177.6</v>
+        <v>182.8666666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4606,11 +4604,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4626,16 +4620,16 @@
         <v>178</v>
       </c>
       <c r="D121" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E121" t="n">
         <v>178</v>
       </c>
       <c r="F121" t="n">
-        <v>1304135</v>
+        <v>1282844.6815</v>
       </c>
       <c r="G121" t="n">
-        <v>178</v>
+        <v>182.7666666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4645,11 +4639,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4671,10 +4661,10 @@
         <v>178</v>
       </c>
       <c r="F122" t="n">
-        <v>1293489</v>
+        <v>1304135</v>
       </c>
       <c r="G122" t="n">
-        <v>178</v>
+        <v>182.7166666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4684,12 +4674,43 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>178</v>
+      </c>
+      <c r="C123" t="n">
+        <v>178</v>
+      </c>
+      <c r="D123" t="n">
+        <v>178</v>
+      </c>
+      <c r="E123" t="n">
+        <v>178</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1293489</v>
+      </c>
+      <c r="G123" t="n">
+        <v>182.6833333333333</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest ICX.xlsx
+++ b/BackTest/2019-10-26 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1148.2093</v>
       </c>
       <c r="G2" t="n">
+        <v>179.2</v>
+      </c>
+      <c r="H2" t="n">
         <v>179.65</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
+        <v>179.4</v>
+      </c>
+      <c r="H3" t="n">
         <v>179.7333333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>493.9316</v>
       </c>
       <c r="G4" t="n">
+        <v>179.6666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>179.8333333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>50</v>
       </c>
       <c r="G5" t="n">
+        <v>179.7333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>179.8166666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1364.0104</v>
       </c>
       <c r="G6" t="n">
+        <v>179.8</v>
+      </c>
+      <c r="H6" t="n">
         <v>179.8333333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>413.3575</v>
       </c>
       <c r="G7" t="n">
+        <v>179.9333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>179.8666666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1541.3916</v>
       </c>
       <c r="G8" t="n">
+        <v>180.1333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>179.85</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,25 @@
         <v>1024.1489</v>
       </c>
       <c r="G9" t="n">
+        <v>180.3333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>179.8</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>179</v>
+      </c>
+      <c r="L9" t="n">
+        <v>179</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,22 +761,29 @@
         <v>1289</v>
       </c>
       <c r="G10" t="n">
+        <v>180.5333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>179.85</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>178</v>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>179</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -767,24 +807,29 @@
         <v>1.0472</v>
       </c>
       <c r="G11" t="n">
+        <v>180.8</v>
+      </c>
+      <c r="H11" t="n">
         <v>179.8833333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="n">
-        <v>178</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>181</v>
+      </c>
+      <c r="L11" t="n">
+        <v>179</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -808,234 +853,259 @@
         <v>74.9143</v>
       </c>
       <c r="G12" t="n">
+        <v>180.7333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>179.95</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>178</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>181</v>
+      </c>
+      <c r="C13" t="n">
+        <v>181</v>
+      </c>
+      <c r="D13" t="n">
+        <v>181</v>
+      </c>
+      <c r="E13" t="n">
+        <v>181</v>
+      </c>
+      <c r="F13" t="n">
+        <v>796.874</v>
+      </c>
+      <c r="G13" t="n">
+        <v>180.6666666666667</v>
+      </c>
+      <c r="H13" t="n">
+        <v>180</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>179</v>
+      </c>
+      <c r="C14" t="n">
+        <v>179</v>
+      </c>
+      <c r="D14" t="n">
+        <v>181</v>
+      </c>
+      <c r="E14" t="n">
+        <v>179</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5.4563</v>
+      </c>
+      <c r="G14" t="n">
+        <v>180.5333333333333</v>
+      </c>
+      <c r="H14" t="n">
+        <v>179.9833333333333</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>181</v>
+      </c>
+      <c r="C15" t="n">
+        <v>179</v>
+      </c>
+      <c r="D15" t="n">
+        <v>181</v>
+      </c>
+      <c r="E15" t="n">
+        <v>179</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1633.2575</v>
+      </c>
+      <c r="G15" t="n">
+        <v>180.3333333333333</v>
+      </c>
+      <c r="H15" t="n">
+        <v>179.9833333333333</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>179</v>
+      </c>
+      <c r="C16" t="n">
+        <v>181</v>
+      </c>
+      <c r="D16" t="n">
+        <v>181</v>
+      </c>
+      <c r="E16" t="n">
+        <v>178</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7156.7124</v>
+      </c>
+      <c r="G16" t="n">
+        <v>180.3333333333333</v>
+      </c>
+      <c r="H16" t="n">
+        <v>180</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>181</v>
+      </c>
+      <c r="C17" t="n">
+        <v>181</v>
+      </c>
+      <c r="D17" t="n">
+        <v>181</v>
+      </c>
+      <c r="E17" t="n">
+        <v>181</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1055</v>
+      </c>
+      <c r="G17" t="n">
+        <v>180.2666666666667</v>
+      </c>
+      <c r="H17" t="n">
+        <v>179.9833333333333</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>181</v>
+      </c>
+      <c r="L17" t="n">
+        <v>181</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>179</v>
+      </c>
+      <c r="C18" t="n">
+        <v>179</v>
+      </c>
+      <c r="D18" t="n">
+        <v>179</v>
+      </c>
+      <c r="E18" t="n">
+        <v>179</v>
+      </c>
+      <c r="F18" t="n">
+        <v>168</v>
+      </c>
+      <c r="G18" t="n">
+        <v>180.0666666666667</v>
+      </c>
+      <c r="H18" t="n">
+        <v>179.9333333333333</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>181</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>181</v>
-      </c>
-      <c r="C13" t="n">
-        <v>181</v>
-      </c>
-      <c r="D13" t="n">
-        <v>181</v>
-      </c>
-      <c r="E13" t="n">
-        <v>181</v>
-      </c>
-      <c r="F13" t="n">
-        <v>796.874</v>
-      </c>
-      <c r="G13" t="n">
-        <v>180</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>179</v>
-      </c>
-      <c r="C14" t="n">
-        <v>179</v>
-      </c>
-      <c r="D14" t="n">
-        <v>181</v>
-      </c>
-      <c r="E14" t="n">
-        <v>179</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5.4563</v>
-      </c>
-      <c r="G14" t="n">
-        <v>179.9833333333333</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>181</v>
-      </c>
-      <c r="C15" t="n">
-        <v>179</v>
-      </c>
-      <c r="D15" t="n">
-        <v>181</v>
-      </c>
-      <c r="E15" t="n">
-        <v>179</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1633.2575</v>
-      </c>
-      <c r="G15" t="n">
-        <v>179.9833333333333</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>179</v>
-      </c>
-      <c r="C16" t="n">
-        <v>181</v>
-      </c>
-      <c r="D16" t="n">
-        <v>181</v>
-      </c>
-      <c r="E16" t="n">
-        <v>178</v>
-      </c>
-      <c r="F16" t="n">
-        <v>7156.7124</v>
-      </c>
-      <c r="G16" t="n">
-        <v>180</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>181</v>
-      </c>
-      <c r="C17" t="n">
-        <v>181</v>
-      </c>
-      <c r="D17" t="n">
-        <v>181</v>
-      </c>
-      <c r="E17" t="n">
-        <v>181</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1055</v>
-      </c>
-      <c r="G17" t="n">
-        <v>179.9833333333333</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>179</v>
-      </c>
-      <c r="C18" t="n">
-        <v>179</v>
-      </c>
-      <c r="D18" t="n">
-        <v>179</v>
-      </c>
-      <c r="E18" t="n">
-        <v>179</v>
-      </c>
-      <c r="F18" t="n">
-        <v>168</v>
-      </c>
-      <c r="G18" t="n">
-        <v>179.9333333333333</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1059,18 +1129,29 @@
         <v>6157.8608</v>
       </c>
       <c r="G19" t="n">
+        <v>179.8666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>179.9333333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>179</v>
+      </c>
+      <c r="L19" t="n">
+        <v>181</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1094,18 +1175,29 @@
         <v>265.8693</v>
       </c>
       <c r="G20" t="n">
+        <v>179.8</v>
+      </c>
+      <c r="H20" t="n">
         <v>179.85</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>180</v>
+      </c>
+      <c r="L20" t="n">
+        <v>181</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1129,18 +1221,29 @@
         <v>2811.4726</v>
       </c>
       <c r="G21" t="n">
+        <v>179.7333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>179.7666666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>178</v>
+      </c>
+      <c r="L21" t="n">
+        <v>181</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1164,18 +1267,29 @@
         <v>391.6944</v>
       </c>
       <c r="G22" t="n">
+        <v>179.8</v>
+      </c>
+      <c r="H22" t="n">
         <v>179.7333333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>178</v>
+      </c>
+      <c r="L22" t="n">
+        <v>181</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1199,18 +1313,29 @@
         <v>379.4657</v>
       </c>
       <c r="G23" t="n">
+        <v>179.8666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>179.7333333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>180</v>
+      </c>
+      <c r="L23" t="n">
+        <v>181</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1234,18 +1359,29 @@
         <v>18720.05659365079</v>
       </c>
       <c r="G24" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="H24" t="n">
         <v>179.9</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>180</v>
+      </c>
+      <c r="L24" t="n">
+        <v>181</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1269,18 +1405,27 @@
         <v>6540.046506349207</v>
       </c>
       <c r="G25" t="n">
+        <v>181.1333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>180.0666666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>181</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1304,18 +1449,27 @@
         <v>853.8317</v>
       </c>
       <c r="G26" t="n">
+        <v>181.6</v>
+      </c>
+      <c r="H26" t="n">
         <v>180.2333333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>181</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1339,18 +1493,27 @@
         <v>123</v>
       </c>
       <c r="G27" t="n">
+        <v>182.0666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>180.3833333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>181</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1374,18 +1537,27 @@
         <v>313.0847</v>
       </c>
       <c r="G28" t="n">
+        <v>182.6</v>
+      </c>
+      <c r="H28" t="n">
         <v>180.55</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>181</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1409,18 +1581,27 @@
         <v>165.5475</v>
       </c>
       <c r="G29" t="n">
+        <v>183.0666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>180.6666666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>181</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,19 +1625,28 @@
         <v>114.2301</v>
       </c>
       <c r="G30" t="n">
+        <v>183.5333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>180.7833333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
+      <c r="L30" t="n">
+        <v>181</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>1.022624309392265</v>
       </c>
     </row>
     <row r="31">
@@ -1479,18 +1669,21 @@
         <v>123.5632</v>
       </c>
       <c r="G31" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="H31" t="n">
         <v>180.8833333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,18 +1707,21 @@
         <v>5460.8779</v>
       </c>
       <c r="G32" t="n">
+        <v>183.6666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>180.9</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1549,18 +1745,21 @@
         <v>206.8208</v>
       </c>
       <c r="G33" t="n">
+        <v>183.9333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>180.9666666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,18 +1783,21 @@
         <v>7</v>
       </c>
       <c r="G34" t="n">
+        <v>184.1333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>181.0166666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,18 +1821,21 @@
         <v>932.7862</v>
       </c>
       <c r="G35" t="n">
+        <v>184.4666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>181.1</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,18 +1859,21 @@
         <v>7240.4136</v>
       </c>
       <c r="G36" t="n">
+        <v>185.2666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>181.2833333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1689,18 +1897,21 @@
         <v>5103.811693193717</v>
       </c>
       <c r="G37" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="H37" t="n">
         <v>181.3666666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,18 +1935,21 @@
         <v>54.6448</v>
       </c>
       <c r="G38" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="H38" t="n">
         <v>181.4</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1759,18 +1973,21 @@
         <v>447.9343</v>
       </c>
       <c r="G39" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="H39" t="n">
         <v>181.4333333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,18 +2011,21 @@
         <v>162.1627</v>
       </c>
       <c r="G40" t="n">
+        <v>185.0666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>181.4666666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,18 +2049,21 @@
         <v>16.3551</v>
       </c>
       <c r="G41" t="n">
+        <v>184.6666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>181.4833333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,18 +2087,21 @@
         <v>16.3142</v>
       </c>
       <c r="G42" t="n">
+        <v>184.1333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>181.45</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,18 +2125,21 @@
         <v>10</v>
       </c>
       <c r="G43" t="n">
+        <v>183.7333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>181.4666666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,18 +2163,21 @@
         <v>1618.6085</v>
       </c>
       <c r="G44" t="n">
+        <v>183.3333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>181.45</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,18 +2201,21 @@
         <v>1250</v>
       </c>
       <c r="G45" t="n">
+        <v>182.9333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>181.45</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,18 +2239,21 @@
         <v>639.4394</v>
       </c>
       <c r="G46" t="n">
+        <v>182.5333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>181.4333333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2039,18 +2277,21 @@
         <v>1829.2002</v>
       </c>
       <c r="G47" t="n">
+        <v>182.6</v>
+      </c>
+      <c r="H47" t="n">
         <v>181.4333333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,18 +2315,21 @@
         <v>1063.2446</v>
       </c>
       <c r="G48" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="H48" t="n">
         <v>181.45</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2109,18 +2353,21 @@
         <v>2500</v>
       </c>
       <c r="G49" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="H49" t="n">
         <v>181.5166666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,18 +2391,21 @@
         <v>124.0531</v>
       </c>
       <c r="G50" t="n">
+        <v>182.3333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>181.5833333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,18 +2429,21 @@
         <v>30</v>
       </c>
       <c r="G51" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="H51" t="n">
         <v>181.65</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2214,18 +2467,21 @@
         <v>218.2771</v>
       </c>
       <c r="G52" t="n">
+        <v>181.5333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>181.7166666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2249,18 +2505,21 @@
         <v>1811.4239</v>
       </c>
       <c r="G53" t="n">
+        <v>181.4</v>
+      </c>
+      <c r="H53" t="n">
         <v>181.8</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,18 +2543,21 @@
         <v>433.226</v>
       </c>
       <c r="G54" t="n">
+        <v>181.3333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>181.9166666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2319,18 +2581,21 @@
         <v>4890.114</v>
       </c>
       <c r="G55" t="n">
+        <v>181.4666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>182.05</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,18 +2619,21 @@
         <v>1670.329</v>
       </c>
       <c r="G56" t="n">
+        <v>181.4</v>
+      </c>
+      <c r="H56" t="n">
         <v>182.1166666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2389,18 +2657,21 @@
         <v>2368.538</v>
       </c>
       <c r="G57" t="n">
+        <v>181.6666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>182.15</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2424,18 +2695,21 @@
         <v>250</v>
       </c>
       <c r="G58" t="n">
+        <v>181.7333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>182.1833333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2459,18 +2733,21 @@
         <v>125.3455</v>
       </c>
       <c r="G59" t="n">
+        <v>182</v>
+      </c>
+      <c r="H59" t="n">
         <v>182.2333333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,18 +2771,21 @@
         <v>1659.3369</v>
       </c>
       <c r="G60" t="n">
+        <v>182.1333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>182.2333333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,18 +2809,21 @@
         <v>500</v>
       </c>
       <c r="G61" t="n">
+        <v>182.4666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>182.2833333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,18 +2847,21 @@
         <v>401.977</v>
       </c>
       <c r="G62" t="n">
+        <v>182.5333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>182.2666666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2599,18 +2885,21 @@
         <v>1862.136</v>
       </c>
       <c r="G63" t="n">
+        <v>182.5333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>182.2333333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2634,18 +2923,21 @@
         <v>2811.4726</v>
       </c>
       <c r="G64" t="n">
+        <v>182.2666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>182.1666666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2672,15 +2964,18 @@
         <v>182.2</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>182.2</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2704,18 +2999,21 @@
         <v>284</v>
       </c>
       <c r="G66" t="n">
+        <v>182.0666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>182.2166666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2739,18 +3037,21 @@
         <v>286.7878</v>
       </c>
       <c r="G67" t="n">
+        <v>182.0666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>182.25</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,18 +3075,21 @@
         <v>1327.9207</v>
       </c>
       <c r="G68" t="n">
+        <v>181.9333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>182.25</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,18 +3113,21 @@
         <v>1.4972</v>
       </c>
       <c r="G69" t="n">
+        <v>182.1333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>182.3666666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2844,18 +3151,21 @@
         <v>2986.061719354839</v>
       </c>
       <c r="G70" t="n">
+        <v>182.1333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>182.45</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,18 +3189,21 @@
         <v>1.3537</v>
       </c>
       <c r="G71" t="n">
+        <v>182.5333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>182.55</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2914,18 +3227,21 @@
         <v>2600</v>
       </c>
       <c r="G72" t="n">
+        <v>182.8</v>
+      </c>
+      <c r="H72" t="n">
         <v>182.6666666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,18 +3265,21 @@
         <v>10</v>
       </c>
       <c r="G73" t="n">
+        <v>183.0666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>182.7833333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,18 +3303,21 @@
         <v>1336.362634391534</v>
       </c>
       <c r="G74" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="H74" t="n">
         <v>182.95</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,18 +3341,21 @@
         <v>1422.4358</v>
       </c>
       <c r="G75" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="H75" t="n">
         <v>183.1</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,18 +3379,21 @@
         <v>4917.6989</v>
       </c>
       <c r="G76" t="n">
+        <v>183.8666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>183.1666666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3089,18 +3417,21 @@
         <v>6.5475</v>
       </c>
       <c r="G77" t="n">
+        <v>184.4</v>
+      </c>
+      <c r="H77" t="n">
         <v>183.3</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,18 +3455,21 @@
         <v>11.2777</v>
       </c>
       <c r="G78" t="n">
+        <v>185</v>
+      </c>
+      <c r="H78" t="n">
         <v>183.4666666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3159,18 +3493,21 @@
         <v>1</v>
       </c>
       <c r="G79" t="n">
+        <v>185.3333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>183.5333333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3194,18 +3531,21 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
+        <v>185.8666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>183.7166666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3229,18 +3569,21 @@
         <v>243.8362</v>
       </c>
       <c r="G81" t="n">
+        <v>186.0666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>183.8</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,18 +3607,21 @@
         <v>90</v>
       </c>
       <c r="G82" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="H82" t="n">
         <v>183.85</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3299,18 +3645,21 @@
         <v>8.2872</v>
       </c>
       <c r="G83" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="H83" t="n">
         <v>183.8833333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,18 +3683,21 @@
         <v>16394.10136065574</v>
       </c>
       <c r="G84" t="n">
+        <v>186.2666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>183.7833333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,18 +3721,21 @@
         <v>1639.344262295082</v>
       </c>
       <c r="G85" t="n">
+        <v>186.0666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>183.6833333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,18 +3759,21 @@
         <v>16231.38819247471</v>
       </c>
       <c r="G86" t="n">
+        <v>186.0666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>183.6666666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,18 +3797,21 @@
         <v>2</v>
       </c>
       <c r="G87" t="n">
+        <v>185.7333333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>183.5833333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,18 +3835,21 @@
         <v>1.0129</v>
       </c>
       <c r="G88" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="H88" t="n">
         <v>183.5333333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3509,18 +3873,21 @@
         <v>1158.7602</v>
       </c>
       <c r="G89" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="H89" t="n">
         <v>183.5333333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3544,18 +3911,21 @@
         <v>6</v>
       </c>
       <c r="G90" t="n">
+        <v>185.3333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>183.55</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3579,18 +3949,21 @@
         <v>2551.11445212766</v>
       </c>
       <c r="G91" t="n">
+        <v>185.5333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>183.6</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,18 +3987,21 @@
         <v>16</v>
       </c>
       <c r="G92" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="H92" t="n">
         <v>183.7333333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,18 +4025,21 @@
         <v>2428.7737</v>
       </c>
       <c r="G93" t="n">
+        <v>185.2666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>183.8</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,18 +4063,21 @@
         <v>6</v>
       </c>
       <c r="G94" t="n">
+        <v>185.3333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>183.8333333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,18 +4101,21 @@
         <v>1.0846</v>
       </c>
       <c r="G95" t="n">
+        <v>185.1333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>183.8833333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,18 +4139,21 @@
         <v>177.071</v>
       </c>
       <c r="G96" t="n">
+        <v>185.1333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>183.7666666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,18 +4177,21 @@
         <v>1.0489</v>
       </c>
       <c r="G97" t="n">
+        <v>185.3333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>183.7833333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,18 +4215,21 @@
         <v>1397</v>
       </c>
       <c r="G98" t="n">
+        <v>185.4666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>183.8</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,18 +4253,21 @@
         <v>2334.2148</v>
       </c>
       <c r="G99" t="n">
+        <v>185.4666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>183.8</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,18 +4291,21 @@
         <v>1.4432</v>
       </c>
       <c r="G100" t="n">
+        <v>185.5333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>183.8</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,18 +4329,21 @@
         <v>3</v>
       </c>
       <c r="G101" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="H101" t="n">
         <v>183.8</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,18 +4367,21 @@
         <v>3460.2232</v>
       </c>
       <c r="G102" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="H102" t="n">
         <v>183.85</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,18 +4405,21 @@
         <v>85.86920000000001</v>
       </c>
       <c r="G103" t="n">
+        <v>184.8666666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>183.8166666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,18 +4443,21 @@
         <v>201.5489</v>
       </c>
       <c r="G104" t="n">
+        <v>184.5333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>183.8333333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,18 +4481,21 @@
         <v>3429.8415</v>
       </c>
       <c r="G105" t="n">
+        <v>184.0666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>183.8333333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,18 +4519,21 @@
         <v>4</v>
       </c>
       <c r="G106" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="H106" t="n">
         <v>183.8666666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,18 +4557,21 @@
         <v>194.0529</v>
       </c>
       <c r="G107" t="n">
+        <v>183.1333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>183.8666666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +4595,21 @@
         <v>1211.3508</v>
       </c>
       <c r="G108" t="n">
+        <v>182.6</v>
+      </c>
+      <c r="H108" t="n">
         <v>183.85</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +4633,21 @@
         <v>86.88039999999999</v>
       </c>
       <c r="G109" t="n">
+        <v>182.2666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>183.8</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,18 +4671,21 @@
         <v>605.6754</v>
       </c>
       <c r="G110" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="H110" t="n">
         <v>183.75</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,18 +4709,21 @@
         <v>165.9686</v>
       </c>
       <c r="G111" t="n">
+        <v>181.5333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>183.7</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,18 +4747,21 @@
         <v>878.8995</v>
       </c>
       <c r="G112" t="n">
+        <v>181</v>
+      </c>
+      <c r="H112" t="n">
         <v>183.65</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,18 +4785,21 @@
         <v>5.985</v>
       </c>
       <c r="G113" t="n">
+        <v>180.5333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>183.5833333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,18 +4823,21 @@
         <v>15201.9358</v>
       </c>
       <c r="G114" t="n">
+        <v>180.1333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>183.5</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4419,18 +4861,21 @@
         <v>2000</v>
       </c>
       <c r="G115" t="n">
+        <v>179.7333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>183.3666666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,18 +4899,21 @@
         <v>2.206</v>
       </c>
       <c r="G116" t="n">
+        <v>179.2666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>183.2666666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4489,18 +4937,21 @@
         <v>38.5</v>
       </c>
       <c r="G117" t="n">
+        <v>178.8</v>
+      </c>
+      <c r="H117" t="n">
         <v>183.1333333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4524,18 +4975,21 @@
         <v>6417.0979</v>
       </c>
       <c r="G118" t="n">
+        <v>178.6</v>
+      </c>
+      <c r="H118" t="n">
         <v>183.0333333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4559,18 +5013,21 @@
         <v>271473.551</v>
       </c>
       <c r="G119" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="H119" t="n">
         <v>182.9333333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,18 +5051,21 @@
         <v>1298812</v>
       </c>
       <c r="G120" t="n">
+        <v>178.2666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>182.8666666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4629,18 +5089,21 @@
         <v>1282844.6815</v>
       </c>
       <c r="G121" t="n">
+        <v>178.0666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>182.7666666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,18 +5127,21 @@
         <v>1304135</v>
       </c>
       <c r="G122" t="n">
+        <v>177.9333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>182.7166666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4699,18 +5165,401 @@
         <v>1293489</v>
       </c>
       <c r="G123" t="n">
+        <v>177.8666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>182.6833333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>178</v>
+      </c>
+      <c r="C124" t="n">
+        <v>178</v>
+      </c>
+      <c r="D124" t="n">
+        <v>178</v>
+      </c>
+      <c r="E124" t="n">
+        <v>178</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1293489</v>
+      </c>
+      <c r="G124" t="n">
+        <v>177.7333333333333</v>
+      </c>
+      <c r="H124" t="n">
+        <v>182.6666666666667</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>178</v>
+      </c>
+      <c r="C125" t="n">
+        <v>178</v>
+      </c>
+      <c r="D125" t="n">
+        <v>178</v>
+      </c>
+      <c r="E125" t="n">
+        <v>178</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1298812</v>
+      </c>
+      <c r="G125" t="n">
+        <v>177.6666666666667</v>
+      </c>
+      <c r="H125" t="n">
+        <v>182.6166666666667</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>178</v>
+      </c>
+      <c r="C126" t="n">
+        <v>178</v>
+      </c>
+      <c r="D126" t="n">
+        <v>178</v>
+      </c>
+      <c r="E126" t="n">
+        <v>178</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1293489</v>
+      </c>
+      <c r="G126" t="n">
+        <v>177.6</v>
+      </c>
+      <c r="H126" t="n">
+        <v>182.5833333333333</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>178</v>
+      </c>
+      <c r="C127" t="n">
+        <v>178</v>
+      </c>
+      <c r="D127" t="n">
+        <v>178</v>
+      </c>
+      <c r="E127" t="n">
+        <v>178</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1304135</v>
+      </c>
+      <c r="G127" t="n">
+        <v>177.6</v>
+      </c>
+      <c r="H127" t="n">
+        <v>182.5333333333333</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>178</v>
+      </c>
+      <c r="C128" t="n">
+        <v>178</v>
+      </c>
+      <c r="D128" t="n">
+        <v>178</v>
+      </c>
+      <c r="E128" t="n">
+        <v>178</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1298812</v>
+      </c>
+      <c r="G128" t="n">
+        <v>177.6666666666667</v>
+      </c>
+      <c r="H128" t="n">
+        <v>182.5166666666667</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>178</v>
+      </c>
+      <c r="C129" t="n">
+        <v>178</v>
+      </c>
+      <c r="D129" t="n">
+        <v>178</v>
+      </c>
+      <c r="E129" t="n">
+        <v>178</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1288166</v>
+      </c>
+      <c r="G129" t="n">
+        <v>177.7333333333333</v>
+      </c>
+      <c r="H129" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>178</v>
+      </c>
+      <c r="C130" t="n">
+        <v>179</v>
+      </c>
+      <c r="D130" t="n">
+        <v>179</v>
+      </c>
+      <c r="E130" t="n">
+        <v>178</v>
+      </c>
+      <c r="F130" t="n">
+        <v>454092</v>
+      </c>
+      <c r="G130" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="H130" t="n">
+        <v>182.2833333333333</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>179</v>
+      </c>
+      <c r="C131" t="n">
+        <v>179</v>
+      </c>
+      <c r="D131" t="n">
+        <v>179</v>
+      </c>
+      <c r="E131" t="n">
+        <v>179</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1257569.768</v>
+      </c>
+      <c r="G131" t="n">
+        <v>178</v>
+      </c>
+      <c r="H131" t="n">
+        <v>182.1333333333333</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>179</v>
+      </c>
+      <c r="C132" t="n">
+        <v>179</v>
+      </c>
+      <c r="D132" t="n">
+        <v>179</v>
+      </c>
+      <c r="E132" t="n">
+        <v>179</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1242300</v>
+      </c>
+      <c r="G132" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="H132" t="n">
+        <v>181.9833333333333</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>179</v>
+      </c>
+      <c r="C133" t="n">
+        <v>179</v>
+      </c>
+      <c r="D133" t="n">
+        <v>179</v>
+      </c>
+      <c r="E133" t="n">
+        <v>179</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1237250</v>
+      </c>
+      <c r="G133" t="n">
+        <v>178.2666666666667</v>
+      </c>
+      <c r="H133" t="n">
+        <v>181.8333333333333</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest ICX.xlsx
+++ b/BackTest/2019-10-26 BackTest ICX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M162"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C2" t="n">
         <v>179</v>
       </c>
       <c r="D2" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" t="n">
         <v>179</v>
       </c>
       <c r="F2" t="n">
-        <v>1195.9391</v>
+        <v>1633.2575</v>
       </c>
       <c r="G2" t="n">
-        <v>-1938728.2316</v>
+        <v>180.4</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C3" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D3" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E3" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F3" t="n">
-        <v>16</v>
+        <v>7156.7124</v>
       </c>
       <c r="G3" t="n">
-        <v>-1938712.2316</v>
+        <v>180.2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,41 +503,47 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C4" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D4" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E4" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F4" t="n">
-        <v>5272.2513</v>
+        <v>1055</v>
       </c>
       <c r="G4" t="n">
-        <v>-1943984.482899999</v>
+        <v>180.2</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>181</v>
+      </c>
+      <c r="K4" t="n">
+        <v>181</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,30 +562,39 @@
         <v>179</v>
       </c>
       <c r="F5" t="n">
-        <v>2183.441</v>
+        <v>168</v>
       </c>
       <c r="G5" t="n">
-        <v>-1941801.041899999</v>
+        <v>179.8</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>181</v>
+      </c>
+      <c r="K5" t="n">
+        <v>181</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C6" t="n">
         <v>180</v>
@@ -582,223 +603,277 @@
         <v>180</v>
       </c>
       <c r="E6" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F6" t="n">
-        <v>2317.5246</v>
+        <v>6157.8608</v>
       </c>
       <c r="G6" t="n">
-        <v>-1939483.517299999</v>
+        <v>180</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>179</v>
+      </c>
+      <c r="K6" t="n">
+        <v>181</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C7" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D7" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E7" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F7" t="n">
-        <v>58.7237</v>
+        <v>265.8693</v>
       </c>
       <c r="G7" t="n">
-        <v>-1939424.7936</v>
+        <v>179.8</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>180</v>
+      </c>
+      <c r="K7" t="n">
+        <v>181</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C8" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D8" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E8" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F8" t="n">
-        <v>292.4271</v>
+        <v>2811.4726</v>
       </c>
       <c r="G8" t="n">
-        <v>-1939424.7936</v>
+        <v>179.2</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>178</v>
+      </c>
+      <c r="K8" t="n">
+        <v>181</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C9" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D9" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E9" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F9" t="n">
-        <v>824.1758241758242</v>
+        <v>391.6944</v>
       </c>
       <c r="G9" t="n">
-        <v>-1938600.617775824</v>
+        <v>179</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>178</v>
+      </c>
+      <c r="K9" t="n">
+        <v>181</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C10" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D10" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E10" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F10" t="n">
-        <v>206.0439</v>
+        <v>379.4657</v>
       </c>
       <c r="G10" t="n">
-        <v>-1938600.617775824</v>
+        <v>179.2</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>180</v>
+      </c>
+      <c r="K10" t="n">
+        <v>181</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C11" t="n">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D11" t="n">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E11" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F11" t="n">
-        <v>618.1318681318681</v>
+        <v>18720.05659365079</v>
       </c>
       <c r="G11" t="n">
-        <v>-1938600.617775824</v>
+        <v>181</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>180</v>
+      </c>
+      <c r="K11" t="n">
+        <v>181</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C12" t="n">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D12" t="n">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E12" t="n">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F12" t="n">
-        <v>35.2431076923077</v>
+        <v>6540.046506349207</v>
       </c>
       <c r="G12" t="n">
-        <v>-1938600.617775824</v>
+        <v>183.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -807,33 +882,40 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>181</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C13" t="n">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D13" t="n">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E13" t="n">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F13" t="n">
-        <v>120.0815923076923</v>
+        <v>853.8317</v>
       </c>
       <c r="G13" t="n">
-        <v>-1938720.699368131</v>
+        <v>185.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -842,33 +924,40 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>181</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C14" t="n">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D14" t="n">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E14" t="n">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F14" t="n">
-        <v>1253.2322</v>
+        <v>123</v>
       </c>
       <c r="G14" t="n">
-        <v>-1939973.931568131</v>
+        <v>187</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -877,33 +966,40 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>181</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C15" t="n">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D15" t="n">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E15" t="n">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>313.0847</v>
       </c>
       <c r="G15" t="n">
-        <v>-1939973.931568131</v>
+        <v>188.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -912,33 +1008,40 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>181</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C16" t="n">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D16" t="n">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E16" t="n">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F16" t="n">
-        <v>4970.2543</v>
+        <v>165.5475</v>
       </c>
       <c r="G16" t="n">
-        <v>-1939973.931568131</v>
+        <v>188.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -947,33 +1050,40 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>181</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C17" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D17" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E17" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F17" t="n">
-        <v>3825.54</v>
+        <v>114.2301</v>
       </c>
       <c r="G17" t="n">
-        <v>-1943799.471568131</v>
+        <v>187.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -982,33 +1092,40 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>181</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C18" t="n">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D18" t="n">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E18" t="n">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F18" t="n">
-        <v>58.0242</v>
+        <v>123.5632</v>
       </c>
       <c r="G18" t="n">
-        <v>-1943799.471568131</v>
+        <v>186.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,33 +1134,40 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>181</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C19" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D19" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E19" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F19" t="n">
-        <v>95.5775</v>
+        <v>5460.8779</v>
       </c>
       <c r="G19" t="n">
-        <v>-1943895.049068131</v>
+        <v>185</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,33 +1176,40 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>181</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C20" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D20" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E20" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F20" t="n">
-        <v>743.1818</v>
+        <v>206.8208</v>
       </c>
       <c r="G20" t="n">
-        <v>-1943895.049068131</v>
+        <v>183.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,33 +1218,40 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>181</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C21" t="n">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D21" t="n">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E21" t="n">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F21" t="n">
-        <v>1648.9632</v>
+        <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>-1945544.012268131</v>
+        <v>183.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,33 +1260,40 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>181</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C22" t="n">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D22" t="n">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E22" t="n">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F22" t="n">
-        <v>9452.789500000001</v>
+        <v>932.7862</v>
       </c>
       <c r="G22" t="n">
-        <v>-1954996.801768131</v>
+        <v>182.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,33 +1302,40 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>181</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C23" t="n">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="D23" t="n">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="E23" t="n">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="F23" t="n">
-        <v>5986.2427</v>
+        <v>7240.4136</v>
       </c>
       <c r="G23" t="n">
-        <v>-1960983.044468131</v>
+        <v>183.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,33 +1344,40 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>181</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C24" t="n">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D24" t="n">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="E24" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F24" t="n">
-        <v>510</v>
+        <v>5103.811693193717</v>
       </c>
       <c r="G24" t="n">
-        <v>-1960473.044468131</v>
+        <v>184.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,33 +1386,40 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>181</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C25" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D25" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E25" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0504</v>
+        <v>54.6448</v>
       </c>
       <c r="G25" t="n">
-        <v>-1960473.044468131</v>
+        <v>184.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,33 +1428,40 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>181</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C26" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D26" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E26" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F26" t="n">
-        <v>1.8098</v>
+        <v>447.9343</v>
       </c>
       <c r="G26" t="n">
-        <v>-1960471.234668131</v>
+        <v>184.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,33 +1470,40 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>181</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C27" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D27" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E27" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>162.1627</v>
       </c>
       <c r="G27" t="n">
-        <v>-1960471.234668131</v>
+        <v>185</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,33 +1512,40 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>181</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C28" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D28" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E28" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F28" t="n">
-        <v>277</v>
+        <v>16.3551</v>
       </c>
       <c r="G28" t="n">
-        <v>-1960748.234668131</v>
+        <v>183.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,33 +1554,40 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>181</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C29" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D29" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E29" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F29" t="n">
-        <v>6.235</v>
+        <v>16.3142</v>
       </c>
       <c r="G29" t="n">
-        <v>-1960741.999668131</v>
+        <v>182.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,33 +1596,40 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>181</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C30" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D30" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E30" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F30" t="n">
-        <v>4060.6734</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>-1964802.673068131</v>
+        <v>182.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,34 +1638,41 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>181</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>180</v>
+      </c>
+      <c r="C31" t="n">
+        <v>180</v>
+      </c>
+      <c r="D31" t="n">
+        <v>180</v>
+      </c>
+      <c r="E31" t="n">
+        <v>179</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1618.6085</v>
+      </c>
+      <c r="G31" t="n">
         <v>182</v>
       </c>
-      <c r="C31" t="n">
-        <v>182</v>
-      </c>
-      <c r="D31" t="n">
-        <v>182</v>
-      </c>
-      <c r="E31" t="n">
-        <v>182</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1148.2093</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-1963654.463768131</v>
-      </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
@@ -1472,33 +1680,40 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>181</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C32" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D32" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E32" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>1250</v>
       </c>
       <c r="G32" t="n">
-        <v>-1963654.463768131</v>
+        <v>181.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,33 +1722,40 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>181</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C33" t="n">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D33" t="n">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E33" t="n">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F33" t="n">
-        <v>493.9316</v>
+        <v>639.4394</v>
       </c>
       <c r="G33" t="n">
-        <v>-1963160.532168131</v>
+        <v>180.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,33 +1764,40 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>181</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C34" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D34" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E34" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F34" t="n">
-        <v>50</v>
+        <v>1829.2002</v>
       </c>
       <c r="G34" t="n">
-        <v>-1963210.532168131</v>
+        <v>180.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,33 +1806,40 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>181</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C35" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D35" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E35" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F35" t="n">
-        <v>1364.0104</v>
+        <v>1063.2446</v>
       </c>
       <c r="G35" t="n">
-        <v>-1963210.532168131</v>
+        <v>179.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,33 +1848,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>181</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C36" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D36" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E36" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F36" t="n">
-        <v>413.3575</v>
+        <v>2500</v>
       </c>
       <c r="G36" t="n">
-        <v>-1963210.532168131</v>
+        <v>180.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,33 +1890,40 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>181</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C37" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D37" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E37" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F37" t="n">
-        <v>1541.3916</v>
+        <v>124.0531</v>
       </c>
       <c r="G37" t="n">
-        <v>-1963210.532168131</v>
+        <v>180.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,33 +1932,40 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>181</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C38" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D38" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E38" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F38" t="n">
-        <v>1024.1489</v>
+        <v>30</v>
       </c>
       <c r="G38" t="n">
-        <v>-1964234.681068131</v>
+        <v>181.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,11 +1974,18 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>181</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1740,10 +2004,10 @@
         <v>181</v>
       </c>
       <c r="F39" t="n">
-        <v>1289</v>
+        <v>218.2771</v>
       </c>
       <c r="G39" t="n">
-        <v>-1962945.681068131</v>
+        <v>181.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,33 +2016,40 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>181</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C40" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D40" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E40" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F40" t="n">
-        <v>1.0472</v>
+        <v>1811.4239</v>
       </c>
       <c r="G40" t="n">
-        <v>-1962944.633868131</v>
+        <v>181.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,33 +2058,40 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>181</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C41" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D41" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E41" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F41" t="n">
-        <v>74.9143</v>
+        <v>433.226</v>
       </c>
       <c r="G41" t="n">
-        <v>-1963019.548168131</v>
+        <v>181.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,33 +2100,40 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>181</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C42" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D42" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E42" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F42" t="n">
-        <v>796.874</v>
+        <v>4890.114</v>
       </c>
       <c r="G42" t="n">
-        <v>-1963019.548168131</v>
+        <v>182.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,33 +2142,40 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>181</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C43" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D43" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E43" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F43" t="n">
-        <v>5.4563</v>
+        <v>1670.329</v>
       </c>
       <c r="G43" t="n">
-        <v>-1963025.004468131</v>
+        <v>182.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1892,33 +2184,40 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>181</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C44" t="n">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D44" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E44" t="n">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F44" t="n">
-        <v>1633.2575</v>
+        <v>2368.538</v>
       </c>
       <c r="G44" t="n">
-        <v>-1963025.004468131</v>
+        <v>183</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,33 +2226,40 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>181</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C45" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D45" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E45" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F45" t="n">
-        <v>7156.7124</v>
+        <v>250</v>
       </c>
       <c r="G45" t="n">
-        <v>-1955868.292068131</v>
+        <v>183.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1962,33 +2268,40 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>181</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C46" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D46" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E46" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F46" t="n">
-        <v>1055</v>
+        <v>125.3455</v>
       </c>
       <c r="G46" t="n">
-        <v>-1955868.292068131</v>
+        <v>184</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1997,33 +2310,40 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>181</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C47" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D47" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E47" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F47" t="n">
-        <v>168</v>
+        <v>1659.3369</v>
       </c>
       <c r="G47" t="n">
-        <v>-1956036.292068131</v>
+        <v>183.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,33 +2352,40 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>181</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C48" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D48" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E48" t="n">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F48" t="n">
-        <v>6157.8608</v>
+        <v>500</v>
       </c>
       <c r="G48" t="n">
-        <v>-1949878.431268131</v>
+        <v>183.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,33 +2394,40 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>181</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C49" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D49" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E49" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F49" t="n">
-        <v>265.8693</v>
+        <v>401.977</v>
       </c>
       <c r="G49" t="n">
-        <v>-1950144.300568131</v>
+        <v>183</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,33 +2436,40 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>181</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C50" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D50" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E50" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F50" t="n">
-        <v>2811.4726</v>
+        <v>1862.136</v>
       </c>
       <c r="G50" t="n">
-        <v>-1950144.300568131</v>
+        <v>182.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,11 +2478,18 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>181</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2151,101 +2499,103 @@
         <v>180</v>
       </c>
       <c r="C51" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D51" t="n">
         <v>180</v>
       </c>
       <c r="E51" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F51" t="n">
-        <v>391.6944</v>
+        <v>2811.4726</v>
       </c>
       <c r="G51" t="n">
-        <v>-1949752.606168131</v>
+        <v>181.2</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>178</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>178</v>
-      </c>
-      <c r="L51" t="inlineStr"/>
+        <v>181</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C52" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D52" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E52" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F52" t="n">
-        <v>379.4657</v>
+        <v>1.2342</v>
       </c>
       <c r="G52" t="n">
-        <v>-1949752.606168131</v>
+        <v>181</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>180</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C53" t="n">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D53" t="n">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E53" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F53" t="n">
-        <v>18720.05659365079</v>
+        <v>284</v>
       </c>
       <c r="G53" t="n">
-        <v>-1931032.549574481</v>
+        <v>180.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2255,38 +2605,39 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C54" t="n">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D54" t="n">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E54" t="n">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F54" t="n">
-        <v>6540.046506349207</v>
+        <v>286.7878</v>
       </c>
       <c r="G54" t="n">
-        <v>-1931032.549574481</v>
+        <v>180.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2295,33 +2646,40 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>181</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C55" t="n">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D55" t="n">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E55" t="n">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F55" t="n">
-        <v>853.8317</v>
+        <v>1327.9207</v>
       </c>
       <c r="G55" t="n">
-        <v>-1931032.549574481</v>
+        <v>180</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2330,33 +2688,40 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>181</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C56" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D56" t="n">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E56" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F56" t="n">
-        <v>123</v>
+        <v>1.4972</v>
       </c>
       <c r="G56" t="n">
-        <v>-1931155.549574481</v>
+        <v>181.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2365,33 +2730,40 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>181</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C57" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D57" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E57" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F57" t="n">
-        <v>313.0847</v>
+        <v>2986.061719354839</v>
       </c>
       <c r="G57" t="n">
-        <v>-1930842.464874481</v>
+        <v>182.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2400,33 +2772,40 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>181</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C58" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D58" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E58" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F58" t="n">
-        <v>165.5475</v>
+        <v>1.3537</v>
       </c>
       <c r="G58" t="n">
-        <v>-1931008.012374481</v>
+        <v>183.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2435,33 +2814,40 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>181</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C59" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D59" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E59" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F59" t="n">
-        <v>114.2301</v>
+        <v>2600</v>
       </c>
       <c r="G59" t="n">
-        <v>-1931008.012374481</v>
+        <v>185.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2470,33 +2856,40 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>181</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C60" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D60" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E60" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F60" t="n">
-        <v>123.5632</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>-1931131.575574481</v>
+        <v>187</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2505,74 +2898,88 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>181</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C61" t="n">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D61" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E61" t="n">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F61" t="n">
-        <v>5460.8779</v>
+        <v>1336.362634391534</v>
       </c>
       <c r="G61" t="n">
-        <v>-1936592.453474481</v>
+        <v>187.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>181</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M61" t="n">
-        <v>1</v>
-      </c>
+        <v>1.039198895027625</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C62" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D62" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E62" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F62" t="n">
-        <v>206.8208</v>
+        <v>1422.4358</v>
       </c>
       <c r="G62" t="n">
-        <v>-1936385.632674481</v>
+        <v>188.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2580,34 +2987,35 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C63" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E63" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F63" t="n">
-        <v>7</v>
+        <v>4917.6989</v>
       </c>
       <c r="G63" t="n">
-        <v>-1936385.632674481</v>
+        <v>187.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2615,28 +3023,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C64" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D64" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E64" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F64" t="n">
-        <v>932.7862</v>
+        <v>6.5475</v>
       </c>
       <c r="G64" t="n">
-        <v>-1936385.632674481</v>
+        <v>187.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,28 +3059,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C65" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E65" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F65" t="n">
-        <v>7240.4136</v>
+        <v>11.2777</v>
       </c>
       <c r="G65" t="n">
-        <v>-1929145.21907448</v>
+        <v>188</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,28 +3095,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C66" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D66" t="n">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E66" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F66" t="n">
-        <v>5103.811693193717</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>-1934249.030767674</v>
+        <v>187</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,28 +3131,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C67" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D67" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E67" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F67" t="n">
-        <v>54.6448</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>-1934303.675567674</v>
+        <v>187.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,28 +3167,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C68" t="n">
         <v>183</v>
       </c>
       <c r="D68" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E68" t="n">
         <v>183</v>
       </c>
       <c r="F68" t="n">
-        <v>447.9343</v>
+        <v>243.8362</v>
       </c>
       <c r="G68" t="n">
-        <v>-1934303.675567674</v>
+        <v>186.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,28 +3203,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C69" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D69" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E69" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F69" t="n">
-        <v>162.1627</v>
+        <v>90</v>
       </c>
       <c r="G69" t="n">
-        <v>-1934141.512867674</v>
+        <v>185.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,28 +3239,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C70" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D70" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E70" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F70" t="n">
-        <v>16.3551</v>
+        <v>8.2872</v>
       </c>
       <c r="G70" t="n">
-        <v>-1934157.867967674</v>
+        <v>184.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,28 +3275,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C71" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D71" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E71" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F71" t="n">
-        <v>16.3142</v>
+        <v>16394.10136065574</v>
       </c>
       <c r="G71" t="n">
-        <v>-1934174.182167674</v>
+        <v>184</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,6 +3311,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2913,10 +3330,10 @@
         <v>183</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>1639.344262295082</v>
       </c>
       <c r="G72" t="n">
-        <v>-1934164.182167674</v>
+        <v>182.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,28 +3347,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C73" t="n">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D73" t="n">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E73" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F73" t="n">
-        <v>1618.6085</v>
+        <v>16231.38819247471</v>
       </c>
       <c r="G73" t="n">
-        <v>-1935782.790667674</v>
+        <v>183.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,28 +3383,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C74" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D74" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E74" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F74" t="n">
-        <v>1250</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>-1935782.790667674</v>
+        <v>183.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,28 +3419,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C75" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D75" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E75" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F75" t="n">
-        <v>639.4394</v>
+        <v>1.0129</v>
       </c>
       <c r="G75" t="n">
-        <v>-1936422.230067674</v>
+        <v>184.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,28 +3455,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C76" t="n">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D76" t="n">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E76" t="n">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F76" t="n">
-        <v>1829.2002</v>
+        <v>1158.7602</v>
       </c>
       <c r="G76" t="n">
-        <v>-1934593.029867674</v>
+        <v>185.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,28 +3491,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C77" t="n">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D77" t="n">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E77" t="n">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F77" t="n">
-        <v>1063.2446</v>
+        <v>6</v>
       </c>
       <c r="G77" t="n">
-        <v>-1934593.029867674</v>
+        <v>186</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,28 +3527,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C78" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D78" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E78" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F78" t="n">
-        <v>2500</v>
+        <v>2551.11445212766</v>
       </c>
       <c r="G78" t="n">
-        <v>-1932093.029867674</v>
+        <v>186</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,28 +3563,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C79" t="n">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D79" t="n">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E79" t="n">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F79" t="n">
-        <v>124.0531</v>
+        <v>16</v>
       </c>
       <c r="G79" t="n">
-        <v>-1932217.082967674</v>
+        <v>186.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,34 +3599,35 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C80" t="n">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D80" t="n">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E80" t="n">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F80" t="n">
-        <v>30</v>
+        <v>2428.7737</v>
       </c>
       <c r="G80" t="n">
-        <v>-1932217.082967674</v>
+        <v>187</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3210,34 +3635,35 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C81" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D81" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E81" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F81" t="n">
-        <v>218.2771</v>
+        <v>6</v>
       </c>
       <c r="G81" t="n">
-        <v>-1932435.360067674</v>
+        <v>186.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3245,34 +3671,35 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C82" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D82" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E82" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F82" t="n">
-        <v>1811.4239</v>
+        <v>1.0846</v>
       </c>
       <c r="G82" t="n">
-        <v>-1932435.360067674</v>
+        <v>186.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3280,34 +3707,35 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C83" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D83" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E83" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F83" t="n">
-        <v>433.226</v>
+        <v>177.071</v>
       </c>
       <c r="G83" t="n">
-        <v>-1932002.134067674</v>
+        <v>185.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3315,13 +3743,14 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C84" t="n">
         <v>186</v>
@@ -3330,19 +3759,19 @@
         <v>186</v>
       </c>
       <c r="E84" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F84" t="n">
-        <v>4890.114</v>
+        <v>1.0489</v>
       </c>
       <c r="G84" t="n">
-        <v>-1927112.020067674</v>
+        <v>185.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3350,34 +3779,35 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C85" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D85" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E85" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F85" t="n">
-        <v>1670.329</v>
+        <v>1397</v>
       </c>
       <c r="G85" t="n">
-        <v>-1928782.349067674</v>
+        <v>184.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3385,34 +3815,35 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C86" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D86" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E86" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F86" t="n">
-        <v>2368.538</v>
+        <v>2334.2148</v>
       </c>
       <c r="G86" t="n">
-        <v>-1926413.811067674</v>
+        <v>184.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3420,6 +3851,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3438,16 +3870,16 @@
         <v>184</v>
       </c>
       <c r="F87" t="n">
-        <v>250</v>
+        <v>1.4432</v>
       </c>
       <c r="G87" t="n">
-        <v>-1926413.811067674</v>
+        <v>184</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3455,28 +3887,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>183</v>
+      </c>
+      <c r="C88" t="n">
+        <v>183</v>
+      </c>
+      <c r="D88" t="n">
+        <v>183</v>
+      </c>
+      <c r="E88" t="n">
+        <v>183</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3</v>
+      </c>
+      <c r="G88" t="n">
         <v>184</v>
-      </c>
-      <c r="C88" t="n">
-        <v>184</v>
-      </c>
-      <c r="D88" t="n">
-        <v>184</v>
-      </c>
-      <c r="E88" t="n">
-        <v>184</v>
-      </c>
-      <c r="F88" t="n">
-        <v>125.3455</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-1926413.811067674</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,28 +3923,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C89" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D89" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E89" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F89" t="n">
-        <v>1659.3369</v>
+        <v>3460.2232</v>
       </c>
       <c r="G89" t="n">
-        <v>-1928073.147967674</v>
+        <v>183.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,28 +3959,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C90" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D90" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E90" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F90" t="n">
-        <v>500</v>
+        <v>85.86920000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>-1927573.147967674</v>
+        <v>182.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,6 +3995,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3578,10 +4014,10 @@
         <v>181</v>
       </c>
       <c r="F91" t="n">
-        <v>401.977</v>
+        <v>201.5489</v>
       </c>
       <c r="G91" t="n">
-        <v>-1927975.124967674</v>
+        <v>182.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,6 +4031,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3613,10 +4050,10 @@
         <v>180</v>
       </c>
       <c r="F92" t="n">
-        <v>1862.136</v>
+        <v>3429.8415</v>
       </c>
       <c r="G92" t="n">
-        <v>-1929837.260967674</v>
+        <v>181.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,28 +4067,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C93" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D93" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E93" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F93" t="n">
-        <v>2811.4726</v>
+        <v>4</v>
       </c>
       <c r="G93" t="n">
-        <v>-1932648.733567674</v>
+        <v>181.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,28 +4103,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C94" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D94" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E94" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F94" t="n">
-        <v>1.2342</v>
+        <v>194.0529</v>
       </c>
       <c r="G94" t="n">
-        <v>-1932647.499367674</v>
+        <v>180.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,28 +4139,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C95" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D95" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E95" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F95" t="n">
-        <v>284</v>
+        <v>1211.3508</v>
       </c>
       <c r="G95" t="n">
-        <v>-1932931.499367674</v>
+        <v>180.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,28 +4175,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C96" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D96" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E96" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F96" t="n">
-        <v>286.7878</v>
+        <v>86.88039999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>-1932644.711567674</v>
+        <v>180</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,6 +4211,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3788,10 +4230,10 @@
         <v>179</v>
       </c>
       <c r="F97" t="n">
-        <v>1327.9207</v>
+        <v>605.6754</v>
       </c>
       <c r="G97" t="n">
-        <v>-1933972.632267673</v>
+        <v>179.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,28 +4247,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C98" t="n">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D98" t="n">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E98" t="n">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F98" t="n">
-        <v>1.4972</v>
+        <v>165.9686</v>
       </c>
       <c r="G98" t="n">
-        <v>-1933971.135067673</v>
+        <v>179.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,28 +4283,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C99" t="n">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D99" t="n">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E99" t="n">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F99" t="n">
-        <v>2986.061719354839</v>
+        <v>878.8995</v>
       </c>
       <c r="G99" t="n">
-        <v>-1930985.073348318</v>
+        <v>179</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,28 +4319,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C100" t="n">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D100" t="n">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E100" t="n">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="F100" t="n">
-        <v>1.3537</v>
+        <v>5.985</v>
       </c>
       <c r="G100" t="n">
-        <v>-1930983.719648318</v>
+        <v>178.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,28 +4355,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C101" t="n">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D101" t="n">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E101" t="n">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="F101" t="n">
-        <v>2600</v>
+        <v>15201.9358</v>
       </c>
       <c r="G101" t="n">
-        <v>-1930983.719648318</v>
+        <v>178</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3945,28 +4391,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C102" t="n">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D102" t="n">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E102" t="n">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="G102" t="n">
-        <v>-1930983.719648318</v>
+        <v>177.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,28 +4427,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C103" t="n">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D103" t="n">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E103" t="n">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F103" t="n">
-        <v>1336.362634391534</v>
+        <v>2.206</v>
       </c>
       <c r="G103" t="n">
-        <v>-1929647.357013927</v>
+        <v>177.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,28 +4463,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C104" t="n">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D104" t="n">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E104" t="n">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F104" t="n">
-        <v>1422.4358</v>
+        <v>38.5</v>
       </c>
       <c r="G104" t="n">
-        <v>-1931069.792813927</v>
+        <v>176.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,34 +4499,35 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C105" t="n">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D105" t="n">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E105" t="n">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F105" t="n">
-        <v>4917.6989</v>
+        <v>6417.0979</v>
       </c>
       <c r="G105" t="n">
-        <v>-1935987.491713927</v>
+        <v>177</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4085,28 +4535,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C106" t="n">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D106" t="n">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E106" t="n">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F106" t="n">
-        <v>6.5475</v>
+        <v>271473.551</v>
       </c>
       <c r="G106" t="n">
-        <v>-1935980.944213927</v>
+        <v>177.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,34 +4571,35 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C107" t="n">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D107" t="n">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E107" t="n">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F107" t="n">
-        <v>11.2777</v>
+        <v>1298812</v>
       </c>
       <c r="G107" t="n">
-        <v>-1935980.944213927</v>
+        <v>177.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4155,34 +4607,35 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C108" t="n">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D108" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E108" t="n">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>1282844.6815</v>
       </c>
       <c r="G108" t="n">
-        <v>-1935981.944213927</v>
+        <v>177.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4190,28 +4643,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C109" t="n">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D109" t="n">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E109" t="n">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>1304135</v>
       </c>
       <c r="G109" t="n">
-        <v>-1935980.944213927</v>
+        <v>178</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,34 +4679,35 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C110" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D110" t="n">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E110" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F110" t="n">
-        <v>243.8362</v>
+        <v>1293489</v>
       </c>
       <c r="G110" t="n">
-        <v>-1936224.780413927</v>
+        <v>178</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4260,28 +4715,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C111" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D111" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E111" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F111" t="n">
-        <v>90</v>
+        <v>1293489</v>
       </c>
       <c r="G111" t="n">
-        <v>-1936224.780413927</v>
+        <v>178</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,28 +4751,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C112" t="n">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D112" t="n">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E112" t="n">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F112" t="n">
-        <v>8.2872</v>
+        <v>1298812</v>
       </c>
       <c r="G112" t="n">
-        <v>-1936233.067613927</v>
+        <v>178</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,28 +4787,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C113" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D113" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E113" t="n">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F113" t="n">
-        <v>16394.10136065574</v>
+        <v>1293489</v>
       </c>
       <c r="G113" t="n">
-        <v>-1919838.966253271</v>
+        <v>178</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4365,28 +4823,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C114" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D114" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E114" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F114" t="n">
-        <v>1639.344262295082</v>
+        <v>1304135</v>
       </c>
       <c r="G114" t="n">
-        <v>-1919838.966253271</v>
+        <v>178</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,28 +4859,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C115" t="n">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D115" t="n">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E115" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F115" t="n">
-        <v>16231.38819247471</v>
+        <v>1298812</v>
       </c>
       <c r="G115" t="n">
-        <v>-1903607.578060796</v>
+        <v>178</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,28 +4895,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C116" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D116" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E116" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>1288166</v>
       </c>
       <c r="G116" t="n">
-        <v>-1903609.578060796</v>
+        <v>178</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4470,28 +4931,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C117" t="n">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D117" t="n">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E117" t="n">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F117" t="n">
-        <v>1.0129</v>
+        <v>454092</v>
       </c>
       <c r="G117" t="n">
-        <v>-1903608.565160796</v>
+        <v>178.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,34 +4967,35 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C118" t="n">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D118" t="n">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E118" t="n">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F118" t="n">
-        <v>1158.7602</v>
+        <v>1257569.768</v>
       </c>
       <c r="G118" t="n">
-        <v>-1903608.565160796</v>
+        <v>178.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4540,34 +5003,35 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C119" t="n">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D119" t="n">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E119" t="n">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F119" t="n">
-        <v>6</v>
+        <v>1242300</v>
       </c>
       <c r="G119" t="n">
-        <v>-1903602.565160796</v>
+        <v>178.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4575,34 +5039,35 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C120" t="n">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D120" t="n">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E120" t="n">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F120" t="n">
-        <v>2551.11445212766</v>
+        <v>1237250</v>
       </c>
       <c r="G120" t="n">
-        <v>-1901051.450708669</v>
+        <v>178.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4610,1584 +5075,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>187</v>
-      </c>
-      <c r="C121" t="n">
-        <v>187</v>
-      </c>
-      <c r="D121" t="n">
-        <v>187</v>
-      </c>
-      <c r="E121" t="n">
-        <v>187</v>
-      </c>
-      <c r="F121" t="n">
-        <v>16</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-1901067.450708669</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>187</v>
-      </c>
-      <c r="C122" t="n">
-        <v>187</v>
-      </c>
-      <c r="D122" t="n">
-        <v>187</v>
-      </c>
-      <c r="E122" t="n">
-        <v>187</v>
-      </c>
-      <c r="F122" t="n">
-        <v>2428.7737</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-1901067.450708669</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>185</v>
-      </c>
-      <c r="C123" t="n">
-        <v>185</v>
-      </c>
-      <c r="D123" t="n">
-        <v>185</v>
-      </c>
-      <c r="E123" t="n">
-        <v>185</v>
-      </c>
-      <c r="F123" t="n">
-        <v>6</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-1901073.450708669</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>186</v>
-      </c>
-      <c r="C124" t="n">
-        <v>186</v>
-      </c>
-      <c r="D124" t="n">
-        <v>186</v>
-      </c>
-      <c r="E124" t="n">
-        <v>186</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1.0846</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-1901072.366108669</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>183</v>
-      </c>
-      <c r="C125" t="n">
-        <v>183</v>
-      </c>
-      <c r="D125" t="n">
-        <v>183</v>
-      </c>
-      <c r="E125" t="n">
-        <v>183</v>
-      </c>
-      <c r="F125" t="n">
-        <v>177.071</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-1901249.437108669</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>186</v>
-      </c>
-      <c r="C126" t="n">
-        <v>186</v>
-      </c>
-      <c r="D126" t="n">
-        <v>186</v>
-      </c>
-      <c r="E126" t="n">
-        <v>186</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1.0489</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-1901248.388208669</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>184</v>
-      </c>
-      <c r="C127" t="n">
-        <v>184</v>
-      </c>
-      <c r="D127" t="n">
-        <v>184</v>
-      </c>
-      <c r="E127" t="n">
-        <v>184</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1397</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-1902645.388208669</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>183</v>
-      </c>
-      <c r="C128" t="n">
-        <v>183</v>
-      </c>
-      <c r="D128" t="n">
-        <v>183</v>
-      </c>
-      <c r="E128" t="n">
-        <v>183</v>
-      </c>
-      <c r="F128" t="n">
-        <v>2334.2148</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-1904979.603008669</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>184</v>
-      </c>
-      <c r="C129" t="n">
-        <v>184</v>
-      </c>
-      <c r="D129" t="n">
-        <v>184</v>
-      </c>
-      <c r="E129" t="n">
-        <v>184</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1.4432</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-1904978.159808669</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>183</v>
-      </c>
-      <c r="C130" t="n">
-        <v>183</v>
-      </c>
-      <c r="D130" t="n">
-        <v>183</v>
-      </c>
-      <c r="E130" t="n">
-        <v>183</v>
-      </c>
-      <c r="F130" t="n">
-        <v>3</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-1904981.159808669</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>183</v>
-      </c>
-      <c r="C131" t="n">
-        <v>183</v>
-      </c>
-      <c r="D131" t="n">
-        <v>183</v>
-      </c>
-      <c r="E131" t="n">
-        <v>183</v>
-      </c>
-      <c r="F131" t="n">
-        <v>3460.2232</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-1904981.159808669</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>181</v>
-      </c>
-      <c r="C132" t="n">
-        <v>181</v>
-      </c>
-      <c r="D132" t="n">
-        <v>181</v>
-      </c>
-      <c r="E132" t="n">
-        <v>181</v>
-      </c>
-      <c r="F132" t="n">
-        <v>85.86920000000001</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-1905067.029008669</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>181</v>
-      </c>
-      <c r="C133" t="n">
-        <v>181</v>
-      </c>
-      <c r="D133" t="n">
-        <v>181</v>
-      </c>
-      <c r="E133" t="n">
-        <v>181</v>
-      </c>
-      <c r="F133" t="n">
-        <v>201.5489</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-1905067.029008669</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>180</v>
-      </c>
-      <c r="C134" t="n">
-        <v>180</v>
-      </c>
-      <c r="D134" t="n">
-        <v>180</v>
-      </c>
-      <c r="E134" t="n">
-        <v>180</v>
-      </c>
-      <c r="F134" t="n">
-        <v>3429.8415</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-1908496.870508669</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>181</v>
-      </c>
-      <c r="C135" t="n">
-        <v>181</v>
-      </c>
-      <c r="D135" t="n">
-        <v>181</v>
-      </c>
-      <c r="E135" t="n">
-        <v>181</v>
-      </c>
-      <c r="F135" t="n">
-        <v>4</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-1908492.870508669</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>180</v>
-      </c>
-      <c r="C136" t="n">
-        <v>180</v>
-      </c>
-      <c r="D136" t="n">
-        <v>180</v>
-      </c>
-      <c r="E136" t="n">
-        <v>180</v>
-      </c>
-      <c r="F136" t="n">
-        <v>194.0529</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-1908686.923408669</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>179</v>
-      </c>
-      <c r="C137" t="n">
-        <v>179</v>
-      </c>
-      <c r="D137" t="n">
-        <v>179</v>
-      </c>
-      <c r="E137" t="n">
-        <v>179</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1211.3508</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-1909898.274208669</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>179</v>
-      </c>
-      <c r="C138" t="n">
-        <v>180</v>
-      </c>
-      <c r="D138" t="n">
-        <v>180</v>
-      </c>
-      <c r="E138" t="n">
-        <v>179</v>
-      </c>
-      <c r="F138" t="n">
-        <v>86.88039999999999</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-1909811.393808669</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>179</v>
-      </c>
-      <c r="C139" t="n">
-        <v>179</v>
-      </c>
-      <c r="D139" t="n">
-        <v>179</v>
-      </c>
-      <c r="E139" t="n">
-        <v>179</v>
-      </c>
-      <c r="F139" t="n">
-        <v>605.6754</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-1910417.069208669</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>179</v>
-      </c>
-      <c r="C140" t="n">
-        <v>179</v>
-      </c>
-      <c r="D140" t="n">
-        <v>179</v>
-      </c>
-      <c r="E140" t="n">
-        <v>179</v>
-      </c>
-      <c r="F140" t="n">
-        <v>165.9686</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-1910417.069208669</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>178</v>
-      </c>
-      <c r="C141" t="n">
-        <v>178</v>
-      </c>
-      <c r="D141" t="n">
-        <v>178</v>
-      </c>
-      <c r="E141" t="n">
-        <v>178</v>
-      </c>
-      <c r="F141" t="n">
-        <v>878.8995</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-1911295.968708669</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>177</v>
-      </c>
-      <c r="C142" t="n">
-        <v>177</v>
-      </c>
-      <c r="D142" t="n">
-        <v>177</v>
-      </c>
-      <c r="E142" t="n">
-        <v>177</v>
-      </c>
-      <c r="F142" t="n">
-        <v>5.985</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-1911301.953708669</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>177</v>
-      </c>
-      <c r="C143" t="n">
-        <v>177</v>
-      </c>
-      <c r="D143" t="n">
-        <v>177</v>
-      </c>
-      <c r="E143" t="n">
-        <v>177</v>
-      </c>
-      <c r="F143" t="n">
-        <v>15201.9358</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-1911301.953708669</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>178</v>
-      </c>
-      <c r="C144" t="n">
-        <v>178</v>
-      </c>
-      <c r="D144" t="n">
-        <v>178</v>
-      </c>
-      <c r="E144" t="n">
-        <v>178</v>
-      </c>
-      <c r="F144" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-1909301.953708669</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>176</v>
-      </c>
-      <c r="C145" t="n">
-        <v>176</v>
-      </c>
-      <c r="D145" t="n">
-        <v>176</v>
-      </c>
-      <c r="E145" t="n">
-        <v>176</v>
-      </c>
-      <c r="F145" t="n">
-        <v>2.206</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-1909304.159708669</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>178</v>
-      </c>
-      <c r="K145" t="n">
-        <v>178</v>
-      </c>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>176</v>
-      </c>
-      <c r="C146" t="n">
-        <v>176</v>
-      </c>
-      <c r="D146" t="n">
-        <v>176</v>
-      </c>
-      <c r="E146" t="n">
-        <v>176</v>
-      </c>
-      <c r="F146" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-1909304.159708669</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>178</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>176</v>
-      </c>
-      <c r="C147" t="n">
-        <v>178</v>
-      </c>
-      <c r="D147" t="n">
-        <v>178</v>
-      </c>
-      <c r="E147" t="n">
-        <v>176</v>
-      </c>
-      <c r="F147" t="n">
-        <v>6417.0979</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-1902887.061808669</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>176</v>
-      </c>
-      <c r="K147" t="n">
-        <v>178</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>178</v>
-      </c>
-      <c r="C148" t="n">
-        <v>178</v>
-      </c>
-      <c r="D148" t="n">
-        <v>178</v>
-      </c>
-      <c r="E148" t="n">
-        <v>178</v>
-      </c>
-      <c r="F148" t="n">
-        <v>271473.551</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-1902887.061808669</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>178</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>178</v>
-      </c>
-      <c r="C149" t="n">
-        <v>178</v>
-      </c>
-      <c r="D149" t="n">
-        <v>178</v>
-      </c>
-      <c r="E149" t="n">
-        <v>178</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1298812</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-1902887.061808669</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>178</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>178</v>
-      </c>
-      <c r="C150" t="n">
-        <v>178</v>
-      </c>
-      <c r="D150" t="n">
-        <v>179</v>
-      </c>
-      <c r="E150" t="n">
-        <v>178</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1282844.6815</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-1902887.061808669</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>178</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>178</v>
-      </c>
-      <c r="C151" t="n">
-        <v>178</v>
-      </c>
-      <c r="D151" t="n">
-        <v>178</v>
-      </c>
-      <c r="E151" t="n">
-        <v>178</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1304135</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-1902887.061808669</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>178</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>178</v>
-      </c>
-      <c r="C152" t="n">
-        <v>178</v>
-      </c>
-      <c r="D152" t="n">
-        <v>178</v>
-      </c>
-      <c r="E152" t="n">
-        <v>178</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1293489</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-1902887.061808669</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>178</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>178</v>
-      </c>
-      <c r="C153" t="n">
-        <v>178</v>
-      </c>
-      <c r="D153" t="n">
-        <v>178</v>
-      </c>
-      <c r="E153" t="n">
-        <v>178</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1293489</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-1902887.061808669</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>178</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>178</v>
-      </c>
-      <c r="C154" t="n">
-        <v>178</v>
-      </c>
-      <c r="D154" t="n">
-        <v>178</v>
-      </c>
-      <c r="E154" t="n">
-        <v>178</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1298812</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-1902887.061808669</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>178</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>178</v>
-      </c>
-      <c r="C155" t="n">
-        <v>178</v>
-      </c>
-      <c r="D155" t="n">
-        <v>178</v>
-      </c>
-      <c r="E155" t="n">
-        <v>178</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1293489</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-1902887.061808669</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>178</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>178</v>
-      </c>
-      <c r="C156" t="n">
-        <v>178</v>
-      </c>
-      <c r="D156" t="n">
-        <v>178</v>
-      </c>
-      <c r="E156" t="n">
-        <v>178</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1304135</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-1902887.061808669</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>178</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>178</v>
-      </c>
-      <c r="C157" t="n">
-        <v>178</v>
-      </c>
-      <c r="D157" t="n">
-        <v>178</v>
-      </c>
-      <c r="E157" t="n">
-        <v>178</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1298812</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-1902887.061808669</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>178</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>178</v>
-      </c>
-      <c r="C158" t="n">
-        <v>178</v>
-      </c>
-      <c r="D158" t="n">
-        <v>178</v>
-      </c>
-      <c r="E158" t="n">
-        <v>178</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1288166</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-1902887.061808669</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>178</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>178</v>
-      </c>
-      <c r="C159" t="n">
-        <v>179</v>
-      </c>
-      <c r="D159" t="n">
-        <v>179</v>
-      </c>
-      <c r="E159" t="n">
-        <v>178</v>
-      </c>
-      <c r="F159" t="n">
-        <v>454092</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-1448795.061808669</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>178</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>179</v>
-      </c>
-      <c r="C160" t="n">
-        <v>179</v>
-      </c>
-      <c r="D160" t="n">
-        <v>179</v>
-      </c>
-      <c r="E160" t="n">
-        <v>179</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1257569.768</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-1448795.061808669</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>178</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>179</v>
-      </c>
-      <c r="C161" t="n">
-        <v>179</v>
-      </c>
-      <c r="D161" t="n">
-        <v>179</v>
-      </c>
-      <c r="E161" t="n">
-        <v>179</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1242300</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-1448795.061808669</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>178</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>179</v>
-      </c>
-      <c r="C162" t="n">
-        <v>179</v>
-      </c>
-      <c r="D162" t="n">
-        <v>179</v>
-      </c>
-      <c r="E162" t="n">
-        <v>179</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1237250</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-1448795.061808669</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>178</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
+      <c r="N120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest ICX.xlsx
+++ b/BackTest/2019-10-26 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N191"/>
+  <dimension ref="A1:M191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,21 @@
         <v>-1928332.0765</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +657,17 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +692,21 @@
         <v>-1929542.5913</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +733,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +770,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +807,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +844,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +881,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +918,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +955,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +992,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +1027,17 @@
         <v>-1927013.736</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1064,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1097,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1130,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1163,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1196,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1227,19 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="J24" t="n">
+        <v>179</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1264,23 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="J25" t="n">
+        <v>179</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1305,23 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="J26" t="n">
+        <v>179</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1348,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1381,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1412,19 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="J29" t="n">
+        <v>179</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1449,23 @@
         <v>-1939924.1707</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="J30" t="n">
+        <v>179</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1490,23 @@
         <v>-1938728.2316</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>178</v>
+      </c>
+      <c r="J31" t="n">
+        <v>179</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1531,23 @@
         <v>-1938712.2316</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="J32" t="n">
+        <v>179</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1572,23 @@
         <v>-1943984.482899999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>180</v>
+      </c>
+      <c r="J33" t="n">
+        <v>179</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1613,23 @@
         <v>-1941801.041899999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>178</v>
+      </c>
+      <c r="J34" t="n">
+        <v>179</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1654,23 @@
         <v>-1939483.517299999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="J35" t="n">
+        <v>179</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1695,23 @@
         <v>-1939424.7936</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>180</v>
+      </c>
+      <c r="J36" t="n">
+        <v>179</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1736,23 @@
         <v>-1939424.7936</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>181</v>
+      </c>
+      <c r="J37" t="n">
+        <v>179</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1777,23 @@
         <v>-1938600.617775824</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>181</v>
+      </c>
+      <c r="J38" t="n">
+        <v>179</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1818,23 @@
         <v>-1938600.617775824</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>182</v>
+      </c>
+      <c r="J39" t="n">
+        <v>179</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1859,23 @@
         <v>-1938600.617775824</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>182</v>
+      </c>
+      <c r="J40" t="n">
+        <v>179</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1900,23 @@
         <v>-1938600.617775824</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>182</v>
+      </c>
+      <c r="J41" t="n">
+        <v>179</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1941,23 @@
         <v>-1938720.699368131</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>182</v>
+      </c>
+      <c r="J42" t="n">
+        <v>179</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1982,23 @@
         <v>-1939973.931568131</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>181</v>
+      </c>
+      <c r="J43" t="n">
+        <v>179</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +2023,23 @@
         <v>-1939973.931568131</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>180</v>
+      </c>
+      <c r="J44" t="n">
+        <v>179</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +2064,23 @@
         <v>-1939973.931568131</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>180</v>
+      </c>
+      <c r="J45" t="n">
+        <v>179</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +2105,23 @@
         <v>-1943799.471568131</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>180</v>
+      </c>
+      <c r="J46" t="n">
+        <v>179</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +2146,23 @@
         <v>-1943799.471568131</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="J47" t="n">
+        <v>179</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +2187,23 @@
         <v>-1943895.049068131</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="J48" t="n">
+        <v>179</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2228,23 @@
         <v>-1943895.049068131</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>178</v>
+      </c>
+      <c r="J49" t="n">
+        <v>179</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,22 +2269,23 @@
         <v>-1945544.012268131</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="J50" t="n">
-        <v>178</v>
-      </c>
-      <c r="K50" t="n">
-        <v>178</v>
-      </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2224,26 +2310,23 @@
         <v>-1954996.801768131</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="J51" t="n">
-        <v>177</v>
-      </c>
-      <c r="K51" t="n">
-        <v>178</v>
-      </c>
-      <c r="L51" t="inlineStr">
+        <v>179</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2268,26 +2351,23 @@
         <v>-1960983.044468131</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="J52" t="n">
-        <v>176</v>
-      </c>
-      <c r="K52" t="n">
-        <v>178</v>
-      </c>
-      <c r="L52" t="inlineStr">
+        <v>179</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2312,26 +2392,23 @@
         <v>-1960473.044468131</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="J53" t="n">
-        <v>175</v>
-      </c>
-      <c r="K53" t="n">
-        <v>178</v>
-      </c>
-      <c r="L53" t="inlineStr">
+        <v>179</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2356,26 +2433,23 @@
         <v>-1960473.044468131</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="J54" t="n">
-        <v>178</v>
-      </c>
-      <c r="K54" t="n">
-        <v>178</v>
-      </c>
-      <c r="L54" t="inlineStr">
+        <v>179</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2400,26 +2474,21 @@
         <v>-1960471.234668131</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>178</v>
-      </c>
-      <c r="K55" t="n">
-        <v>178</v>
-      </c>
-      <c r="L55" t="inlineStr">
+        <v>179</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2446,22 +2515,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>178</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>179</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2488,22 +2554,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>178</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>179</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2528,24 +2591,21 @@
         <v>-1960741.999668131</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>178</v>
-      </c>
-      <c r="L58" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>179</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2572,22 +2632,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>178</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>179</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2614,22 +2671,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>178</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>179</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2656,22 +2710,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>178</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>179</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2698,22 +2749,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>178</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>179</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2740,22 +2788,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>178</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>179</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2780,26 +2825,21 @@
         <v>-1963210.532168131</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>179</v>
       </c>
-      <c r="K64" t="n">
-        <v>178</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2824,26 +2864,15 @@
         <v>-1963210.532168131</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>179</v>
-      </c>
-      <c r="K65" t="n">
-        <v>178</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2868,26 +2897,15 @@
         <v>-1963210.532168131</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>179</v>
-      </c>
-      <c r="K66" t="n">
-        <v>178</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2912,26 +2930,15 @@
         <v>-1964234.681068131</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>179</v>
-      </c>
-      <c r="K67" t="n">
-        <v>178</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2956,26 +2963,15 @@
         <v>-1962945.681068131</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>178</v>
-      </c>
-      <c r="K68" t="n">
-        <v>178</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3002,22 +2998,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>178</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3042,24 +3029,15 @@
         <v>-1963019.548168131</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>178</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3086,22 +3064,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>178</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3128,22 +3097,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>178</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3170,22 +3130,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>178</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3212,22 +3163,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>178</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3254,22 +3196,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>178</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3296,22 +3229,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>178</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3338,22 +3262,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>178</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3378,26 +3293,15 @@
         <v>-1950144.300568131</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>180</v>
-      </c>
-      <c r="K78" t="n">
-        <v>178</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3422,26 +3326,15 @@
         <v>-1950144.300568131</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>178</v>
-      </c>
-      <c r="K79" t="n">
-        <v>178</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3466,26 +3359,15 @@
         <v>-1949752.606168131</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>178</v>
-      </c>
-      <c r="K80" t="n">
-        <v>178</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3512,22 +3394,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>178</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3554,22 +3427,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>178</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3596,22 +3460,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>178</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3638,24 +3493,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>178</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1.056797752808989</v>
-      </c>
-      <c r="N84" t="n">
-        <v>1.039772727272727</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3680,18 +3524,15 @@
         <v>-1931155.549574481</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3718,16 +3559,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3752,18 +3590,15 @@
         <v>-1931008.012374481</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3788,18 +3623,15 @@
         <v>-1931008.012374481</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3826,16 +3658,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3862,16 +3691,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3896,18 +3722,15 @@
         <v>-1936385.632674481</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3932,18 +3755,15 @@
         <v>-1936385.632674481</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3970,16 +3790,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4006,16 +3823,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4042,16 +3856,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4078,16 +3889,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4114,16 +3922,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4150,16 +3955,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4186,16 +3988,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4222,16 +4021,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4258,16 +4054,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4294,16 +4087,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4330,16 +4120,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4366,16 +4153,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4402,16 +4186,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4438,16 +4219,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4474,16 +4252,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4510,16 +4285,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4546,16 +4318,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4582,16 +4351,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4618,16 +4384,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4654,16 +4417,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4690,16 +4450,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4726,16 +4483,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4762,16 +4516,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4798,16 +4549,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4834,16 +4582,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4870,16 +4615,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4906,16 +4648,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4942,16 +4681,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4978,16 +4714,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5014,16 +4747,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5050,16 +4780,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5086,16 +4813,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5122,16 +4846,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5158,16 +4879,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5194,16 +4912,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5230,16 +4945,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5266,16 +4978,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5302,16 +5011,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5338,16 +5044,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5374,16 +5077,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5410,16 +5110,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5446,16 +5143,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5482,16 +5176,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5518,16 +5209,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5554,16 +5242,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5590,16 +5275,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5626,16 +5308,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5662,16 +5341,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5698,16 +5374,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5734,16 +5407,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5770,16 +5440,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5806,16 +5473,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5842,16 +5506,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5878,16 +5539,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5914,16 +5572,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5950,16 +5605,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5986,16 +5638,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6022,16 +5671,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6058,16 +5704,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6094,16 +5737,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6130,16 +5770,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6166,16 +5803,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6202,16 +5836,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6238,16 +5869,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6274,16 +5902,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6310,16 +5935,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6346,16 +5968,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6382,16 +6001,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6418,16 +6034,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6454,16 +6067,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6490,16 +6100,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6526,16 +6133,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6562,16 +6166,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6598,16 +6199,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6634,16 +6232,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6670,16 +6265,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6706,16 +6298,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6742,16 +6331,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6778,16 +6364,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6814,16 +6397,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6850,16 +6430,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6886,16 +6463,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6920,22 +6494,15 @@
         <v>-1909304.159708669</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>176</v>
-      </c>
-      <c r="K175" t="n">
-        <v>176</v>
-      </c>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6960,26 +6527,15 @@
         <v>-1902887.061808669</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>176</v>
-      </c>
-      <c r="K176" t="n">
-        <v>176</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7004,26 +6560,15 @@
         <v>-1902887.061808669</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>178</v>
-      </c>
-      <c r="K177" t="n">
-        <v>176</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7050,22 +6595,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>176</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7092,22 +6628,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>176</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7134,22 +6661,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>176</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7176,22 +6694,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>176</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7218,22 +6727,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>176</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7260,22 +6760,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>176</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7302,22 +6793,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>176</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7344,22 +6826,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>176</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7386,22 +6859,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>176</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7428,22 +6892,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>176</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7470,22 +6925,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>176</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7512,22 +6958,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>176</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7554,22 +6991,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>176</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7596,24 +7024,15 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>176</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ICX.xlsx
+++ b/BackTest/2019-10-26 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,17 +616,11 @@
         <v>-1928332.0765</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -659,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -692,17 +682,11 @@
         <v>-1929542.5913</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>178</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -735,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -772,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -809,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -846,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -883,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -920,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -957,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -994,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1027,16 +979,14 @@
         <v>-1927013.736</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
       <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1227,14 +1177,10 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>179</v>
-      </c>
-      <c r="J24" t="n">
-        <v>179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1264,19 +1210,11 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>179</v>
-      </c>
-      <c r="J25" t="n">
-        <v>179</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1305,19 +1243,11 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>179</v>
-      </c>
-      <c r="J26" t="n">
-        <v>179</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1412,14 +1342,10 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>179</v>
-      </c>
-      <c r="J29" t="n">
-        <v>179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1449,19 +1375,11 @@
         <v>-1939924.1707</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>179</v>
-      </c>
-      <c r="J30" t="n">
-        <v>179</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1490,19 +1408,11 @@
         <v>-1938728.2316</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>178</v>
-      </c>
-      <c r="J31" t="n">
-        <v>179</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1531,19 +1441,11 @@
         <v>-1938712.2316</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>179</v>
-      </c>
-      <c r="J32" t="n">
-        <v>179</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1572,19 +1474,11 @@
         <v>-1943984.482899999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>180</v>
-      </c>
-      <c r="J33" t="n">
-        <v>179</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1613,19 +1507,11 @@
         <v>-1941801.041899999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>178</v>
-      </c>
-      <c r="J34" t="n">
-        <v>179</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1654,19 +1540,11 @@
         <v>-1939483.517299999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>179</v>
-      </c>
-      <c r="J35" t="n">
-        <v>179</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1695,19 +1573,11 @@
         <v>-1939424.7936</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>180</v>
-      </c>
-      <c r="J36" t="n">
-        <v>179</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1736,19 +1606,11 @@
         <v>-1939424.7936</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>181</v>
-      </c>
-      <c r="J37" t="n">
-        <v>179</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1777,19 +1639,11 @@
         <v>-1938600.617775824</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>181</v>
-      </c>
-      <c r="J38" t="n">
-        <v>179</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1818,19 +1672,11 @@
         <v>-1938600.617775824</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>182</v>
-      </c>
-      <c r="J39" t="n">
-        <v>179</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1859,19 +1705,11 @@
         <v>-1938600.617775824</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>182</v>
-      </c>
-      <c r="J40" t="n">
-        <v>179</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1900,19 +1738,11 @@
         <v>-1938600.617775824</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>182</v>
-      </c>
-      <c r="J41" t="n">
-        <v>179</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1941,19 +1771,11 @@
         <v>-1938720.699368131</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>182</v>
-      </c>
-      <c r="J42" t="n">
-        <v>179</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1982,19 +1804,11 @@
         <v>-1939973.931568131</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>181</v>
-      </c>
-      <c r="J43" t="n">
-        <v>179</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2023,19 +1837,11 @@
         <v>-1939973.931568131</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>180</v>
-      </c>
-      <c r="J44" t="n">
-        <v>179</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2064,19 +1870,11 @@
         <v>-1939973.931568131</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>180</v>
-      </c>
-      <c r="J45" t="n">
-        <v>179</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2105,19 +1903,11 @@
         <v>-1943799.471568131</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>180</v>
-      </c>
-      <c r="J46" t="n">
-        <v>179</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2146,19 +1936,11 @@
         <v>-1943799.471568131</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>179</v>
-      </c>
-      <c r="J47" t="n">
-        <v>179</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2187,19 +1969,11 @@
         <v>-1943895.049068131</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>179</v>
-      </c>
-      <c r="J48" t="n">
-        <v>179</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2228,19 +2002,11 @@
         <v>-1943895.049068131</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>178</v>
-      </c>
-      <c r="J49" t="n">
-        <v>179</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2269,19 +2035,11 @@
         <v>-1945544.012268131</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>178</v>
-      </c>
-      <c r="J50" t="n">
-        <v>179</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2310,19 +2068,15 @@
         <v>-1954996.801768131</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>177</v>
       </c>
       <c r="J51" t="n">
-        <v>179</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2351,17 +2105,17 @@
         <v>-1960983.044468131</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>176</v>
       </c>
       <c r="J52" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2392,13 +2146,13 @@
         <v>-1960473.044468131</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>175</v>
       </c>
       <c r="J53" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2433,13 +2187,13 @@
         <v>-1960473.044468131</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>178</v>
       </c>
       <c r="J54" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2474,11 +2228,13 @@
         <v>-1960471.234668131</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>178</v>
+      </c>
       <c r="J55" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2517,7 +2273,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2556,7 +2312,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2591,11 +2347,11 @@
         <v>-1960741.999668131</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2630,11 +2386,13 @@
         <v>-1964802.673068131</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>182</v>
+      </c>
       <c r="J59" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2673,7 +2431,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2708,11 +2466,13 @@
         <v>-1963654.463768131</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>182</v>
+      </c>
       <c r="J61" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2751,7 +2511,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2790,7 +2550,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2825,19 +2585,21 @@
         <v>-1963210.532168131</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>179</v>
+      </c>
       <c r="J64" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="M64" t="inlineStr"/>
     </row>
@@ -2864,11 +2626,19 @@
         <v>-1963210.532168131</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>179</v>
+      </c>
+      <c r="J65" t="n">
+        <v>177</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2897,11 +2667,19 @@
         <v>-1963210.532168131</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>179</v>
+      </c>
+      <c r="J66" t="n">
+        <v>177</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2930,11 +2708,19 @@
         <v>-1964234.681068131</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>179</v>
+      </c>
+      <c r="J67" t="n">
+        <v>177</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2963,11 +2749,19 @@
         <v>-1962945.681068131</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>178</v>
+      </c>
+      <c r="J68" t="n">
+        <v>177</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2999,8 +2793,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>177</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3029,11 +2829,17 @@
         <v>-1963019.548168131</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>177</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3065,8 +2871,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>177</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3098,8 +2910,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>177</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3131,8 +2949,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>177</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3161,11 +2985,19 @@
         <v>-1955868.292068131</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>179</v>
+      </c>
+      <c r="J74" t="n">
+        <v>177</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3194,11 +3026,19 @@
         <v>-1955868.292068131</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>181</v>
+      </c>
+      <c r="J75" t="n">
+        <v>177</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3227,11 +3067,19 @@
         <v>-1956036.292068131</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>181</v>
+      </c>
+      <c r="J76" t="n">
+        <v>177</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3260,11 +3108,19 @@
         <v>-1949878.431268131</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>179</v>
+      </c>
+      <c r="J77" t="n">
+        <v>177</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3293,11 +3149,19 @@
         <v>-1950144.300568131</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>180</v>
+      </c>
+      <c r="J78" t="n">
+        <v>177</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3326,11 +3190,19 @@
         <v>-1950144.300568131</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>178</v>
+      </c>
+      <c r="J79" t="n">
+        <v>177</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3359,11 +3231,19 @@
         <v>-1949752.606168131</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>178</v>
+      </c>
+      <c r="J80" t="n">
+        <v>177</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3392,11 +3272,19 @@
         <v>-1949752.606168131</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>180</v>
+      </c>
+      <c r="J81" t="n">
+        <v>177</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3425,11 +3313,19 @@
         <v>-1931032.549574481</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>180</v>
+      </c>
+      <c r="J82" t="n">
+        <v>177</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3461,8 +3357,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>177</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3494,8 +3396,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>177</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3524,11 +3432,17 @@
         <v>-1931155.549574481</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>177</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3560,8 +3474,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>177</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3590,11 +3510,17 @@
         <v>-1931008.012374481</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>177</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3623,11 +3549,17 @@
         <v>-1931008.012374481</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>177</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3659,8 +3591,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>177</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3692,8 +3630,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>177</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3722,11 +3666,17 @@
         <v>-1936385.632674481</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>177</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3755,11 +3705,17 @@
         <v>-1936385.632674481</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>177</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3791,8 +3747,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>177</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3824,8 +3786,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>177</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3857,8 +3825,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>177</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3890,8 +3864,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>177</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3923,8 +3903,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>177</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3956,8 +3942,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>177</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3989,8 +3981,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>177</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4022,8 +4020,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>177</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4052,11 +4056,19 @@
         <v>-1934164.182167674</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>180</v>
+      </c>
+      <c r="J101" t="n">
+        <v>177</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4085,11 +4097,19 @@
         <v>-1935782.790667674</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>183</v>
+      </c>
+      <c r="J102" t="n">
+        <v>177</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4121,8 +4141,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>177</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4151,11 +4177,19 @@
         <v>-1936422.230067674</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>180</v>
+      </c>
+      <c r="J104" t="n">
+        <v>177</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4184,11 +4218,19 @@
         <v>-1934593.029867674</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>179</v>
+      </c>
+      <c r="J105" t="n">
+        <v>177</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4217,11 +4259,19 @@
         <v>-1934593.029867674</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>180</v>
+      </c>
+      <c r="J106" t="n">
+        <v>177</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4250,11 +4300,19 @@
         <v>-1932093.029867674</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>180</v>
+      </c>
+      <c r="J107" t="n">
+        <v>177</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4286,8 +4344,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>177</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4319,8 +4383,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>177</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4352,8 +4422,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>177</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4385,8 +4461,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>177</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4418,8 +4500,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>177</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4451,8 +4539,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>177</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4484,8 +4578,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>177</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4517,8 +4617,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>177</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4550,8 +4656,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>177</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4583,8 +4695,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>177</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4616,8 +4734,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>177</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4649,8 +4773,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>177</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4682,8 +4812,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>177</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4715,8 +4851,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>177</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4748,8 +4890,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>177</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4781,8 +4929,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>177</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4814,8 +4968,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>177</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4847,8 +5007,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>177</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4880,8 +5046,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>177</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4913,8 +5085,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>177</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4946,8 +5124,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>177</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4979,8 +5163,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>177</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5012,8 +5202,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>177</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5045,8 +5241,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>177</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5078,8 +5280,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>177</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5108,15 +5316,23 @@
         <v>-1931069.792813927</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>177</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>1.057146892655367</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1.039772727272727</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5141,7 +5357,7 @@
         <v>-1935987.491713927</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5174,7 +5390,7 @@
         <v>-1935980.944213927</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5207,7 +5423,7 @@
         <v>-1935980.944213927</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5240,7 +5456,7 @@
         <v>-1935981.944213927</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5306,7 +5522,7 @@
         <v>-1936224.780413927</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5636,7 +5852,7 @@
         <v>-1901051.450708669</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5669,7 +5885,7 @@
         <v>-1901067.450708669</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5702,7 +5918,7 @@
         <v>-1901067.450708669</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6395,10 +6611,14 @@
         <v>-1911301.953708669</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>177</v>
+      </c>
+      <c r="J172" t="n">
+        <v>177</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
@@ -6431,8 +6651,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>177</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6464,8 +6690,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>177</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7033,6 +7265,6 @@
       <c r="M191" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ICX.xlsx
+++ b/BackTest/2019-10-26 BackTest ICX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1927811.0093</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1928171.5422</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1928332.0765</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1929543.5913</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1929542.5913</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1929543.5913</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1929531.5913</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1929530.5913</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1931502.2448</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1928692.8857</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1926872.8857</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1926872.8857</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1927383.059</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1927013.736</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1927013.736</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1927085.329399999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1938728.2316</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1939483.517299999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1938600.617775824</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1938600.617775824</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1939973.931568131</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1939973.931568131</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1939973.931568131</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1943799.471568131</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2068,14 +2068,10 @@
         <v>-1954996.801768131</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>177</v>
-      </c>
-      <c r="J51" t="n">
-        <v>177</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
@@ -2105,19 +2101,11 @@
         <v>-1960983.044468131</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>176</v>
-      </c>
-      <c r="J52" t="n">
-        <v>177</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2146,19 +2134,11 @@
         <v>-1960473.044468131</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>175</v>
-      </c>
-      <c r="J53" t="n">
-        <v>177</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2187,19 +2167,11 @@
         <v>-1960473.044468131</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>178</v>
-      </c>
-      <c r="J54" t="n">
-        <v>177</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2228,19 +2200,11 @@
         <v>-1960471.234668131</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>178</v>
-      </c>
-      <c r="J55" t="n">
-        <v>177</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2272,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>177</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2311,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>177</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2350,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>177</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2386,19 +2332,11 @@
         <v>-1964802.673068131</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>182</v>
-      </c>
-      <c r="J59" t="n">
-        <v>177</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2430,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>177</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2466,19 +2398,11 @@
         <v>-1963654.463768131</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>182</v>
-      </c>
-      <c r="J61" t="n">
-        <v>177</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2510,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>177</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2549,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>177</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2585,19 +2497,11 @@
         <v>-1963210.532168131</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>179</v>
-      </c>
-      <c r="J64" t="n">
-        <v>177</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2626,19 +2530,11 @@
         <v>-1963210.532168131</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>179</v>
-      </c>
-      <c r="J65" t="n">
-        <v>177</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2667,19 +2563,11 @@
         <v>-1963210.532168131</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>179</v>
-      </c>
-      <c r="J66" t="n">
-        <v>177</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2708,19 +2596,11 @@
         <v>-1964234.681068131</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>179</v>
-      </c>
-      <c r="J67" t="n">
-        <v>177</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2749,19 +2629,11 @@
         <v>-1962945.681068131</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>178</v>
-      </c>
-      <c r="J68" t="n">
-        <v>177</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2793,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>177</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2832,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>177</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2871,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>177</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2910,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>177</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2949,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>177</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2985,19 +2827,11 @@
         <v>-1955868.292068131</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>179</v>
-      </c>
-      <c r="J74" t="n">
-        <v>177</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3026,19 +2860,11 @@
         <v>-1955868.292068131</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>181</v>
-      </c>
-      <c r="J75" t="n">
-        <v>177</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3067,19 +2893,11 @@
         <v>-1956036.292068131</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>181</v>
-      </c>
-      <c r="J76" t="n">
-        <v>177</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3108,19 +2926,11 @@
         <v>-1949878.431268131</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>179</v>
-      </c>
-      <c r="J77" t="n">
-        <v>177</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3149,19 +2959,11 @@
         <v>-1950144.300568131</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>180</v>
-      </c>
-      <c r="J78" t="n">
-        <v>177</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3190,19 +2992,11 @@
         <v>-1950144.300568131</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>178</v>
-      </c>
-      <c r="J79" t="n">
-        <v>177</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3231,19 +3025,11 @@
         <v>-1949752.606168131</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>178</v>
-      </c>
-      <c r="J80" t="n">
-        <v>177</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3272,19 +3058,11 @@
         <v>-1949752.606168131</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>180</v>
-      </c>
-      <c r="J81" t="n">
-        <v>177</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3313,19 +3091,11 @@
         <v>-1931032.549574481</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>180</v>
-      </c>
-      <c r="J82" t="n">
-        <v>177</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3357,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>177</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3396,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>177</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3435,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>177</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3474,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>177</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3513,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>177</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3552,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>177</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3591,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>177</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3630,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>177</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3669,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>177</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3708,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>177</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3747,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>177</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3786,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>177</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3825,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>177</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3864,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>177</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3903,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>177</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3942,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>177</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3981,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>177</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4020,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>177</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4056,19 +3718,11 @@
         <v>-1934164.182167674</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>180</v>
-      </c>
-      <c r="J101" t="n">
-        <v>177</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4097,19 +3751,11 @@
         <v>-1935782.790667674</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>183</v>
-      </c>
-      <c r="J102" t="n">
-        <v>177</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4141,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>177</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4177,19 +3817,11 @@
         <v>-1936422.230067674</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>180</v>
-      </c>
-      <c r="J104" t="n">
-        <v>177</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4218,19 +3850,11 @@
         <v>-1934593.029867674</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>179</v>
-      </c>
-      <c r="J105" t="n">
-        <v>177</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4259,19 +3883,11 @@
         <v>-1934593.029867674</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>180</v>
-      </c>
-      <c r="J106" t="n">
-        <v>177</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4300,19 +3916,11 @@
         <v>-1932093.029867674</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>180</v>
-      </c>
-      <c r="J107" t="n">
-        <v>177</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4344,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>177</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4383,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>177</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4422,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>177</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4461,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>177</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4500,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>177</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4539,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>177</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4578,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>177</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4617,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>177</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4656,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>177</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4695,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>177</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4734,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>177</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4773,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>177</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4812,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>177</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4851,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>177</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4890,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>177</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4929,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>177</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4968,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>177</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5007,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>177</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5046,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>177</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5085,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>177</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5124,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>177</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5163,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>177</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5202,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>177</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5241,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>177</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5280,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>177</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5316,23 +4774,15 @@
         <v>-1931069.792813927</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>177</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
-        <v>1.057146892655367</v>
-      </c>
-      <c r="M133" t="n">
-        <v>1.039772727272727</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5357,7 +4807,7 @@
         <v>-1935987.491713927</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5390,7 +4840,7 @@
         <v>-1935980.944213927</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5423,7 +4873,7 @@
         <v>-1935980.944213927</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5456,7 +4906,7 @@
         <v>-1935981.944213927</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5522,7 +4972,7 @@
         <v>-1936224.780413927</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5852,7 +5302,7 @@
         <v>-1901051.450708669</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5885,7 +5335,7 @@
         <v>-1901067.450708669</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5918,7 +5368,7 @@
         <v>-1901067.450708669</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6611,14 +6061,10 @@
         <v>-1911301.953708669</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>177</v>
-      </c>
-      <c r="J172" t="n">
-        <v>177</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
@@ -6651,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>177</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6690,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>177</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6891,10 +6325,14 @@
         <v>-1902887.061808669</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>178</v>
+      </c>
+      <c r="J180" t="n">
+        <v>178</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
@@ -6927,8 +6365,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>178</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6960,8 +6404,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>178</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6990,10 +6440,14 @@
         <v>-1902887.061808669</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>178</v>
+      </c>
+      <c r="J183" t="n">
+        <v>178</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
@@ -7023,11 +6477,19 @@
         <v>-1902887.061808669</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>178</v>
+      </c>
+      <c r="J184" t="n">
+        <v>178</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7059,8 +6521,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>178</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7265,6 +6733,6 @@
       <c r="M191" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ICX.xlsx
+++ b/BackTest/2019-10-26 BackTest ICX.xlsx
@@ -451,7 +451,7 @@
         <v>-1927811.0093</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1928171.5422</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1928332.0765</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1929543.5913</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1929542.5913</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1929543.5913</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1929531.5913</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1929530.5913</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1931502.2448</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1928692.8857</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1926872.8857</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1926872.8857</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1927383.059</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1927013.736</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1927013.736</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1927085.329399999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1929791.7586</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1938728.2316</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1507,10 +1507,14 @@
         <v>-1941801.041899999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>178</v>
+      </c>
+      <c r="J34" t="n">
+        <v>178</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
@@ -1540,11 +1544,19 @@
         <v>-1939483.517299999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>179</v>
+      </c>
+      <c r="J35" t="n">
+        <v>178</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1588,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>178</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1672,7 +1690,7 @@
         <v>-1938600.617775824</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1723,7 @@
         <v>-1938600.617775824</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1804,7 +1822,7 @@
         <v>-1939973.931568131</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1855,7 @@
         <v>-1939973.931568131</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,10 +1888,14 @@
         <v>-1939973.931568131</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>180</v>
+      </c>
+      <c r="J45" t="n">
+        <v>180</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
@@ -1903,11 +1925,17 @@
         <v>-1943799.471568131</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>180</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +1967,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>180</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2002,10 +2036,14 @@
         <v>-1943895.049068131</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>178</v>
+      </c>
+      <c r="J49" t="n">
+        <v>178</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
@@ -2038,8 +2076,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>178</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2112,19 @@
         <v>-1954996.801768131</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>177</v>
+      </c>
+      <c r="J51" t="n">
+        <v>178</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2153,19 @@
         <v>-1960983.044468131</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>176</v>
+      </c>
+      <c r="J52" t="n">
+        <v>178</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2194,19 @@
         <v>-1960473.044468131</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>175</v>
+      </c>
+      <c r="J53" t="n">
+        <v>178</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2235,19 @@
         <v>-1960473.044468131</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>178</v>
+      </c>
+      <c r="J54" t="n">
+        <v>178</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2276,19 @@
         <v>-1960471.234668131</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>178</v>
+      </c>
+      <c r="J55" t="n">
+        <v>178</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2320,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>178</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2356,17 @@
         <v>-1960748.234668131</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>178</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2395,17 @@
         <v>-1960741.999668131</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>178</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2437,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>178</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2476,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>178</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2515,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>178</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2554,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>178</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,13 +2590,19 @@
         <v>-1963210.532168131</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>178</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>1.00061797752809</v>
       </c>
       <c r="M63" t="inlineStr"/>
     </row>
@@ -2629,10 +2761,14 @@
         <v>-1962945.681068131</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>178</v>
+      </c>
+      <c r="J68" t="n">
+        <v>178</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
@@ -2665,8 +2801,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>178</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2837,17 @@
         <v>-1963019.548168131</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>178</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,7 +2876,7 @@
         <v>-1963019.548168131</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2909,7 @@
         <v>-1963025.004468131</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3124,7 +3272,7 @@
         <v>-1931032.549574481</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3305,7 @@
         <v>-1931032.549574481</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3338,7 @@
         <v>-1931155.549574481</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3371,7 @@
         <v>-1930842.464874481</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3404,7 @@
         <v>-1931008.012374481</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3437,7 @@
         <v>-1931008.012374481</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3470,7 @@
         <v>-1931131.575574481</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3503,7 @@
         <v>-1936592.453474481</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3520,7 +3668,7 @@
         <v>-1934249.030767674</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3701,7 @@
         <v>-1934303.675567674</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4774,7 +4922,7 @@
         <v>-1931069.792813927</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4955,7 @@
         <v>-1935987.491713927</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4988,7 @@
         <v>-1935980.944213927</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +5021,7 @@
         <v>-1935980.944213927</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +5054,7 @@
         <v>-1935981.944213927</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4972,7 +5120,7 @@
         <v>-1936224.780413927</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5269,7 +5417,7 @@
         <v>-1903602.565160796</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5450,7 @@
         <v>-1901051.450708669</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5483,7 @@
         <v>-1901067.450708669</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5516,7 @@
         <v>-1901067.450708669</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5533,7 +5681,7 @@
         <v>-1902645.388208669</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6325,14 +6473,10 @@
         <v>-1902887.061808669</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>178</v>
-      </c>
-      <c r="J180" t="n">
-        <v>178</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
@@ -6365,14 +6509,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>178</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6404,14 +6542,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>178</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6440,14 +6572,10 @@
         <v>-1902887.061808669</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>178</v>
-      </c>
-      <c r="J183" t="n">
-        <v>178</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
@@ -6477,19 +6605,11 @@
         <v>-1902887.061808669</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>178</v>
-      </c>
-      <c r="J184" t="n">
-        <v>178</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6521,14 +6641,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>178</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
